--- a/Office/TeamHub详细设计-文件管理-主界面.xlsx
+++ b/Office/TeamHub详细设计-文件管理-主界面.xlsx
@@ -10,13 +10,14 @@
     <sheet name="概要" sheetId="3" r:id="rId1"/>
     <sheet name="界面 " sheetId="8" r:id="rId2"/>
     <sheet name="界面明细" sheetId="7" r:id="rId3"/>
+    <sheet name="处理过程" sheetId="9" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="125">
   <si>
     <t>TeamHub</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,10 +51,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>详细</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>前进/刷新</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -82,10 +79,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>缩略图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>&gt;OneDrive</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -257,31 +250,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>hover事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextBox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于输入需要搜索的文件名（Enabled）。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>字符输入事件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索按钮，遍历当前目录及所有子目录搜索文件名含有“搜索框”的内容的文件，并将其显示在“文件预览”内。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右对齐，上沿对齐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单击事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>hover事件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>搜索框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TextBox</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于输入需要搜索的文件名（Enabled）。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字符输入事件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜索</t>
+    <t>下载</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -289,7 +302,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>搜索按钮，遍历当前目录及所有子目录搜索文件名含有“搜索框”的内容的文件，并将其显示在“文件预览”内。</t>
+    <t>下载按钮，将选中的文件/文件夹下载到本地。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单击事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hover事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(自定义控件，参见 CTXT010131 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单击事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hover事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纪录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纪录按钮，可查看正在下载的文件和已下载纪录</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -305,19 +354,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>下载</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下载按钮，将选中的文件/文件夹下载到本地。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（弹出对话框窗体 WDLG010132 ）</t>
+    <t>adb_dir</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>img_enter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_searchFile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>img_searchFile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>img_download</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>img_upload</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>img_record</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传按钮，选择文件/文件夹上传到TeamHub。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目录面板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目录面板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右对齐，上沿对齐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于承载 TeamHub目录树控件和OneDrive目录树控件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -329,15 +410,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>上传</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(自定义控件，参见 CTXT010131 )</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（弹出对话框窗体 WDLG010133 ）</t>
+    <t>&gt;TeamHub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;OneDrive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于显示OneDrive上文件的目录树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于显示TeamHub上文件的目录树</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -349,119 +434,87 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>纪录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纪录按钮，可查看正在下载的文件和已下载纪录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（弹出侧边栏控件 CRDB010134 ）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>右对齐，上沿对齐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单击事件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hover事件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adb_dir</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>img_enter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tb_searchFile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>img_searchFile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>img_download</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>img_upload</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>img_record</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上传按钮，选择文件/文件夹上传到TeamHub。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目录面板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目录面板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>右对齐，上沿对齐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ToolBar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于承载 TeamHub目录树控件和OneDrive目录树控件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单击事件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hover事件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;TeamHub</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;OneDrive</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于显示OneDrive上文件的目录树</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于显示TeamHub上文件的目录树</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单击事件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hover事件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>左对齐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左对齐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Canvas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cv_holder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TreeView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左对齐，下沿对齐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tv_th</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tv_oneDrive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示地址栏里的目录的所有文件/文件夹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wp_fileHolder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TreeView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左键单击事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左键双击事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（弹出文件下载对话框 WDLG010132 ）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（弹出文件上传对话框 WDLG010133 ）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（弹出控件 CTAB010134 ）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FileViewer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右键单击事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(自定义控件， 参见 CFRM010135）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左键单击事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右键单击事件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -565,7 +618,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -753,11 +806,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -776,18 +842,69 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -807,25 +924,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -837,23 +936,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -900,31 +990,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1232,87 +1321,87 @@
   <dimension ref="C3:Y49"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="V16" sqref="V16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="3" spans="3:25" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
-      <c r="S3" s="24"/>
-      <c r="T3" s="24"/>
-      <c r="U3" s="24"/>
-      <c r="V3" s="24"/>
-      <c r="W3" s="24"/>
-      <c r="X3" s="24"/>
-      <c r="Y3" s="24"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="33"/>
+      <c r="U3" s="33"/>
+      <c r="V3" s="33"/>
+      <c r="W3" s="33"/>
+      <c r="X3" s="33"/>
+      <c r="Y3" s="33"/>
     </row>
     <row r="4" spans="3:25" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="24"/>
-      <c r="S4" s="24"/>
-      <c r="T4" s="24"/>
-      <c r="U4" s="24"/>
-      <c r="V4" s="24"/>
-      <c r="W4" s="24"/>
-      <c r="X4" s="24"/>
-      <c r="Y4" s="24"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="33"/>
+      <c r="S4" s="33"/>
+      <c r="T4" s="33"/>
+      <c r="U4" s="33"/>
+      <c r="V4" s="33"/>
+      <c r="W4" s="33"/>
+      <c r="X4" s="33"/>
+      <c r="Y4" s="33"/>
     </row>
     <row r="5" spans="3:25" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="24"/>
-      <c r="T5" s="24"/>
-      <c r="U5" s="24"/>
-      <c r="V5" s="24"/>
-      <c r="W5" s="24"/>
-      <c r="X5" s="24"/>
-      <c r="Y5" s="24"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="33"/>
+      <c r="S5" s="33"/>
+      <c r="T5" s="33"/>
+      <c r="U5" s="33"/>
+      <c r="V5" s="33"/>
+      <c r="W5" s="33"/>
+      <c r="X5" s="33"/>
+      <c r="Y5" s="33"/>
     </row>
     <row r="7" spans="3:25" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H7" s="10"/>
@@ -1352,7 +1441,7 @@
   <dimension ref="B1:AT35"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="K12" sqref="K12:AS30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1362,40 +1451,40 @@
   <sheetData>
     <row r="1" spans="2:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="2:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="35" t="s">
+      <c r="B2" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="36"/>
-      <c r="V2" s="36"/>
-      <c r="W2" s="36"/>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="36"/>
-      <c r="Z2" s="36"/>
-      <c r="AA2" s="36"/>
-      <c r="AB2" s="36"/>
-      <c r="AC2" s="37"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="45"/>
+      <c r="V2" s="45"/>
+      <c r="W2" s="45"/>
+      <c r="X2" s="45"/>
+      <c r="Y2" s="45"/>
+      <c r="Z2" s="45"/>
+      <c r="AA2" s="45"/>
+      <c r="AB2" s="45"/>
+      <c r="AC2" s="35"/>
       <c r="AD2" s="2"/>
       <c r="AE2" s="3"/>
       <c r="AF2" s="3"/>
@@ -1415,34 +1504,34 @@
       <c r="AT2" s="4"/>
     </row>
     <row r="3" spans="2:46" x14ac:dyDescent="0.15">
-      <c r="B3" s="40"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30"/>
-      <c r="T3" s="30"/>
-      <c r="U3" s="30"/>
-      <c r="V3" s="30"/>
-      <c r="W3" s="30"/>
-      <c r="X3" s="30"/>
-      <c r="Y3" s="30"/>
-      <c r="Z3" s="30"/>
-      <c r="AA3" s="30"/>
-      <c r="AB3" s="30"/>
-      <c r="AC3" s="33"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="53"/>
+      <c r="S3" s="53"/>
+      <c r="T3" s="53"/>
+      <c r="U3" s="53"/>
+      <c r="V3" s="53"/>
+      <c r="W3" s="53"/>
+      <c r="X3" s="53"/>
+      <c r="Y3" s="53"/>
+      <c r="Z3" s="53"/>
+      <c r="AA3" s="53"/>
+      <c r="AB3" s="53"/>
+      <c r="AC3" s="54"/>
       <c r="AD3" s="5"/>
       <c r="AE3" s="1"/>
       <c r="AF3" s="1"/>
@@ -1462,38 +1551,38 @@
       <c r="AT3" s="6"/>
     </row>
     <row r="4" spans="2:46" x14ac:dyDescent="0.15">
-      <c r="B4" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30" t="s">
+      <c r="B4" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="30"/>
-      <c r="S4" s="30"/>
-      <c r="T4" s="30"/>
-      <c r="U4" s="30"/>
-      <c r="V4" s="30"/>
-      <c r="W4" s="30"/>
-      <c r="X4" s="30"/>
-      <c r="Y4" s="30"/>
-      <c r="Z4" s="30"/>
-      <c r="AA4" s="30"/>
-      <c r="AB4" s="30"/>
-      <c r="AC4" s="33"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="53"/>
+      <c r="R4" s="53"/>
+      <c r="S4" s="53"/>
+      <c r="T4" s="53"/>
+      <c r="U4" s="53"/>
+      <c r="V4" s="53"/>
+      <c r="W4" s="53"/>
+      <c r="X4" s="53"/>
+      <c r="Y4" s="53"/>
+      <c r="Z4" s="53"/>
+      <c r="AA4" s="53"/>
+      <c r="AB4" s="53"/>
+      <c r="AC4" s="54"/>
       <c r="AD4" s="5"/>
       <c r="AE4" s="1"/>
       <c r="AF4" s="1"/>
@@ -1513,34 +1602,34 @@
       <c r="AT4" s="6"/>
     </row>
     <row r="5" spans="2:46" x14ac:dyDescent="0.15">
-      <c r="B5" s="31"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="32"/>
-      <c r="P5" s="32"/>
-      <c r="Q5" s="32"/>
-      <c r="R5" s="32"/>
-      <c r="S5" s="32"/>
-      <c r="T5" s="32"/>
-      <c r="U5" s="32"/>
-      <c r="V5" s="32"/>
-      <c r="W5" s="32"/>
-      <c r="X5" s="32"/>
-      <c r="Y5" s="32"/>
-      <c r="Z5" s="32"/>
-      <c r="AA5" s="32"/>
-      <c r="AB5" s="32"/>
-      <c r="AC5" s="34"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="46"/>
+      <c r="P5" s="46"/>
+      <c r="Q5" s="46"/>
+      <c r="R5" s="46"/>
+      <c r="S5" s="46"/>
+      <c r="T5" s="46"/>
+      <c r="U5" s="46"/>
+      <c r="V5" s="46"/>
+      <c r="W5" s="46"/>
+      <c r="X5" s="46"/>
+      <c r="Y5" s="46"/>
+      <c r="Z5" s="46"/>
+      <c r="AA5" s="46"/>
+      <c r="AB5" s="46"/>
+      <c r="AC5" s="37"/>
       <c r="AD5" s="7"/>
       <c r="AE5" s="8"/>
       <c r="AF5" s="8"/>
@@ -1560,11 +1649,11 @@
       <c r="AT5" s="9"/>
     </row>
     <row r="7" spans="2:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D7" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
+      <c r="D7" s="55" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
     </row>
     <row r="8" spans="2:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D8" s="2"/>
@@ -1612,108 +1701,108 @@
     </row>
     <row r="9" spans="2:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D9" s="14"/>
-      <c r="E9" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="37"/>
-      <c r="G9" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="37"/>
+      <c r="E9" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="35"/>
+      <c r="G9" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="35"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36"/>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="36"/>
-      <c r="S9" s="36"/>
-      <c r="T9" s="36"/>
-      <c r="U9" s="36"/>
-      <c r="V9" s="36"/>
-      <c r="W9" s="36"/>
-      <c r="X9" s="36"/>
-      <c r="Y9" s="36"/>
-      <c r="Z9" s="37"/>
-      <c r="AA9" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB9" s="42"/>
+      <c r="J9" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="45"/>
+      <c r="O9" s="45"/>
+      <c r="P9" s="45"/>
+      <c r="Q9" s="45"/>
+      <c r="R9" s="45"/>
+      <c r="S9" s="45"/>
+      <c r="T9" s="45"/>
+      <c r="U9" s="45"/>
+      <c r="V9" s="45"/>
+      <c r="W9" s="45"/>
+      <c r="X9" s="45"/>
+      <c r="Y9" s="45"/>
+      <c r="Z9" s="35"/>
+      <c r="AA9" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB9" s="38"/>
       <c r="AC9" s="1"/>
-      <c r="AD9" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="AE9" s="36"/>
-      <c r="AF9" s="36"/>
-      <c r="AG9" s="36"/>
-      <c r="AH9" s="36"/>
-      <c r="AI9" s="37"/>
-      <c r="AJ9" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="AK9" s="37"/>
+      <c r="AD9" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE9" s="45"/>
+      <c r="AF9" s="45"/>
+      <c r="AG9" s="45"/>
+      <c r="AH9" s="45"/>
+      <c r="AI9" s="35"/>
+      <c r="AJ9" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="AK9" s="35"/>
       <c r="AL9" s="1"/>
-      <c r="AM9" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="AN9" s="37"/>
-      <c r="AO9" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="AP9" s="37"/>
-      <c r="AQ9" s="35" t="s">
+      <c r="AM9" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="AR9" s="37"/>
+      <c r="AN9" s="35"/>
+      <c r="AO9" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="AP9" s="35"/>
+      <c r="AQ9" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="AR9" s="35"/>
       <c r="AS9" s="6"/>
     </row>
     <row r="10" spans="2:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D10" s="5"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="34"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="37"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="32"/>
-      <c r="O10" s="32"/>
-      <c r="P10" s="32"/>
-      <c r="Q10" s="32"/>
-      <c r="R10" s="32"/>
-      <c r="S10" s="32"/>
-      <c r="T10" s="32"/>
-      <c r="U10" s="32"/>
-      <c r="V10" s="32"/>
-      <c r="W10" s="32"/>
-      <c r="X10" s="32"/>
-      <c r="Y10" s="32"/>
-      <c r="Z10" s="34"/>
-      <c r="AA10" s="43"/>
-      <c r="AB10" s="44"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="46"/>
+      <c r="N10" s="46"/>
+      <c r="O10" s="46"/>
+      <c r="P10" s="46"/>
+      <c r="Q10" s="46"/>
+      <c r="R10" s="46"/>
+      <c r="S10" s="46"/>
+      <c r="T10" s="46"/>
+      <c r="U10" s="46"/>
+      <c r="V10" s="46"/>
+      <c r="W10" s="46"/>
+      <c r="X10" s="46"/>
+      <c r="Y10" s="46"/>
+      <c r="Z10" s="37"/>
+      <c r="AA10" s="39"/>
+      <c r="AB10" s="40"/>
       <c r="AC10" s="1"/>
-      <c r="AD10" s="31"/>
-      <c r="AE10" s="32"/>
-      <c r="AF10" s="32"/>
-      <c r="AG10" s="32"/>
-      <c r="AH10" s="32"/>
-      <c r="AI10" s="34"/>
-      <c r="AJ10" s="31"/>
-      <c r="AK10" s="34"/>
+      <c r="AD10" s="36"/>
+      <c r="AE10" s="46"/>
+      <c r="AF10" s="46"/>
+      <c r="AG10" s="46"/>
+      <c r="AH10" s="46"/>
+      <c r="AI10" s="37"/>
+      <c r="AJ10" s="36"/>
+      <c r="AK10" s="37"/>
       <c r="AL10" s="1"/>
-      <c r="AM10" s="31"/>
-      <c r="AN10" s="34"/>
-      <c r="AO10" s="31"/>
-      <c r="AP10" s="34"/>
-      <c r="AQ10" s="31"/>
-      <c r="AR10" s="34"/>
+      <c r="AM10" s="36"/>
+      <c r="AN10" s="37"/>
+      <c r="AO10" s="36"/>
+      <c r="AP10" s="37"/>
+      <c r="AQ10" s="36"/>
+      <c r="AR10" s="37"/>
       <c r="AS10" s="6"/>
     </row>
     <row r="11" spans="2:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1761,852 +1850,848 @@
       <c r="AS11" s="6"/>
     </row>
     <row r="12" spans="2:46" x14ac:dyDescent="0.15">
-      <c r="D12" s="65"/>
+      <c r="D12" s="22"/>
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
       <c r="H12" s="15"/>
       <c r="I12" s="15"/>
-      <c r="J12" s="66"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="15"/>
-      <c r="S12" s="15"/>
-      <c r="T12" s="15"/>
-      <c r="U12" s="15"/>
-      <c r="V12" s="15"/>
-      <c r="W12" s="15"/>
-      <c r="X12" s="15"/>
-      <c r="Y12" s="15"/>
-      <c r="Z12" s="15"/>
-      <c r="AA12" s="15"/>
-      <c r="AB12" s="15"/>
-      <c r="AC12" s="15"/>
-      <c r="AD12" s="15"/>
-      <c r="AE12" s="15"/>
-      <c r="AF12" s="15"/>
-      <c r="AG12" s="15"/>
-      <c r="AH12" s="15"/>
-      <c r="AI12" s="15"/>
-      <c r="AJ12" s="15"/>
-      <c r="AK12" s="15"/>
-      <c r="AL12" s="15"/>
-      <c r="AM12" s="15"/>
-      <c r="AN12" s="15"/>
-      <c r="AO12" s="15"/>
-      <c r="AP12" s="15"/>
-      <c r="AQ12" s="15"/>
-      <c r="AR12" s="15"/>
-      <c r="AS12" s="16"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="76" t="s">
+        <v>16</v>
+      </c>
+      <c r="L12" s="77"/>
+      <c r="M12" s="77"/>
+      <c r="N12" s="77"/>
+      <c r="O12" s="77"/>
+      <c r="P12" s="77"/>
+      <c r="Q12" s="77"/>
+      <c r="R12" s="77"/>
+      <c r="S12" s="77"/>
+      <c r="T12" s="77"/>
+      <c r="U12" s="77"/>
+      <c r="V12" s="77"/>
+      <c r="W12" s="77"/>
+      <c r="X12" s="77"/>
+      <c r="Y12" s="77"/>
+      <c r="Z12" s="77"/>
+      <c r="AA12" s="77"/>
+      <c r="AB12" s="77"/>
+      <c r="AC12" s="77"/>
+      <c r="AD12" s="77"/>
+      <c r="AE12" s="77"/>
+      <c r="AF12" s="77"/>
+      <c r="AG12" s="77"/>
+      <c r="AH12" s="77"/>
+      <c r="AI12" s="77"/>
+      <c r="AJ12" s="77"/>
+      <c r="AK12" s="77"/>
+      <c r="AL12" s="77"/>
+      <c r="AM12" s="77"/>
+      <c r="AN12" s="77"/>
+      <c r="AO12" s="77"/>
+      <c r="AP12" s="77"/>
+      <c r="AQ12" s="77"/>
+      <c r="AR12" s="77"/>
+      <c r="AS12" s="78"/>
     </row>
     <row r="13" spans="2:46" x14ac:dyDescent="0.15">
-      <c r="D13" s="67"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="17"/>
-      <c r="U13" s="17"/>
-      <c r="V13" s="17"/>
-      <c r="W13" s="17"/>
-      <c r="X13" s="17"/>
-      <c r="Y13" s="17"/>
-      <c r="Z13" s="17"/>
-      <c r="AA13" s="17"/>
-      <c r="AB13" s="17"/>
-      <c r="AC13" s="17"/>
-      <c r="AD13" s="17"/>
-      <c r="AE13" s="17"/>
-      <c r="AF13" s="17"/>
-      <c r="AG13" s="17"/>
-      <c r="AH13" s="17"/>
-      <c r="AI13" s="17"/>
-      <c r="AJ13" s="17"/>
-      <c r="AK13" s="17"/>
-      <c r="AL13" s="17"/>
-      <c r="AM13" s="17"/>
-      <c r="AN13" s="17"/>
-      <c r="AO13" s="17"/>
-      <c r="AP13" s="17"/>
-      <c r="AQ13" s="17"/>
-      <c r="AR13" s="17"/>
-      <c r="AS13" s="18"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="79"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="44"/>
+      <c r="N13" s="44"/>
+      <c r="O13" s="44"/>
+      <c r="P13" s="44"/>
+      <c r="Q13" s="44"/>
+      <c r="R13" s="44"/>
+      <c r="S13" s="44"/>
+      <c r="T13" s="44"/>
+      <c r="U13" s="44"/>
+      <c r="V13" s="44"/>
+      <c r="W13" s="44"/>
+      <c r="X13" s="44"/>
+      <c r="Y13" s="44"/>
+      <c r="Z13" s="44"/>
+      <c r="AA13" s="44"/>
+      <c r="AB13" s="44"/>
+      <c r="AC13" s="44"/>
+      <c r="AD13" s="44"/>
+      <c r="AE13" s="44"/>
+      <c r="AF13" s="44"/>
+      <c r="AG13" s="44"/>
+      <c r="AH13" s="44"/>
+      <c r="AI13" s="44"/>
+      <c r="AJ13" s="44"/>
+      <c r="AK13" s="44"/>
+      <c r="AL13" s="44"/>
+      <c r="AM13" s="44"/>
+      <c r="AN13" s="44"/>
+      <c r="AO13" s="44"/>
+      <c r="AP13" s="44"/>
+      <c r="AQ13" s="44"/>
+      <c r="AR13" s="44"/>
+      <c r="AS13" s="80"/>
     </row>
     <row r="14" spans="2:46" x14ac:dyDescent="0.15">
-      <c r="D14" s="67"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="17"/>
-      <c r="S14" s="17"/>
-      <c r="T14" s="17"/>
-      <c r="U14" s="17"/>
-      <c r="V14" s="17"/>
-      <c r="W14" s="17"/>
-      <c r="X14" s="17"/>
-      <c r="Y14" s="17"/>
-      <c r="Z14" s="17"/>
-      <c r="AA14" s="17"/>
-      <c r="AB14" s="17"/>
-      <c r="AC14" s="17"/>
-      <c r="AD14" s="17"/>
-      <c r="AE14" s="17"/>
-      <c r="AF14" s="17"/>
-      <c r="AG14" s="17"/>
-      <c r="AH14" s="17"/>
-      <c r="AI14" s="17"/>
-      <c r="AJ14" s="17"/>
-      <c r="AK14" s="17"/>
-      <c r="AL14" s="17"/>
-      <c r="AM14" s="17"/>
-      <c r="AN14" s="17"/>
-      <c r="AO14" s="17"/>
-      <c r="AP14" s="17"/>
-      <c r="AQ14" s="17"/>
-      <c r="AR14" s="17"/>
-      <c r="AS14" s="18"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="79"/>
+      <c r="L14" s="44"/>
+      <c r="M14" s="44"/>
+      <c r="N14" s="44"/>
+      <c r="O14" s="44"/>
+      <c r="P14" s="44"/>
+      <c r="Q14" s="44"/>
+      <c r="R14" s="44"/>
+      <c r="S14" s="44"/>
+      <c r="T14" s="44"/>
+      <c r="U14" s="44"/>
+      <c r="V14" s="44"/>
+      <c r="W14" s="44"/>
+      <c r="X14" s="44"/>
+      <c r="Y14" s="44"/>
+      <c r="Z14" s="44"/>
+      <c r="AA14" s="44"/>
+      <c r="AB14" s="44"/>
+      <c r="AC14" s="44"/>
+      <c r="AD14" s="44"/>
+      <c r="AE14" s="44"/>
+      <c r="AF14" s="44"/>
+      <c r="AG14" s="44"/>
+      <c r="AH14" s="44"/>
+      <c r="AI14" s="44"/>
+      <c r="AJ14" s="44"/>
+      <c r="AK14" s="44"/>
+      <c r="AL14" s="44"/>
+      <c r="AM14" s="44"/>
+      <c r="AN14" s="44"/>
+      <c r="AO14" s="44"/>
+      <c r="AP14" s="44"/>
+      <c r="AQ14" s="44"/>
+      <c r="AR14" s="44"/>
+      <c r="AS14" s="80"/>
     </row>
     <row r="15" spans="2:46" x14ac:dyDescent="0.15">
-      <c r="D15" s="67"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
-      <c r="R15" s="17"/>
-      <c r="S15" s="17"/>
-      <c r="T15" s="17"/>
-      <c r="U15" s="17"/>
-      <c r="V15" s="17"/>
-      <c r="W15" s="17"/>
-      <c r="X15" s="17"/>
-      <c r="Y15" s="17"/>
-      <c r="Z15" s="17"/>
-      <c r="AA15" s="17"/>
-      <c r="AB15" s="17"/>
-      <c r="AC15" s="17"/>
-      <c r="AD15" s="17"/>
-      <c r="AE15" s="17"/>
-      <c r="AF15" s="17"/>
-      <c r="AG15" s="17"/>
-      <c r="AH15" s="17"/>
-      <c r="AI15" s="17"/>
-      <c r="AJ15" s="17"/>
-      <c r="AK15" s="17"/>
-      <c r="AL15" s="17"/>
-      <c r="AM15" s="17"/>
-      <c r="AN15" s="17"/>
-      <c r="AO15" s="17"/>
-      <c r="AP15" s="17"/>
-      <c r="AQ15" s="17"/>
-      <c r="AR15" s="17"/>
-      <c r="AS15" s="18"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="79"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="44"/>
+      <c r="N15" s="44"/>
+      <c r="O15" s="44"/>
+      <c r="P15" s="44"/>
+      <c r="Q15" s="44"/>
+      <c r="R15" s="44"/>
+      <c r="S15" s="44"/>
+      <c r="T15" s="44"/>
+      <c r="U15" s="44"/>
+      <c r="V15" s="44"/>
+      <c r="W15" s="44"/>
+      <c r="X15" s="44"/>
+      <c r="Y15" s="44"/>
+      <c r="Z15" s="44"/>
+      <c r="AA15" s="44"/>
+      <c r="AB15" s="44"/>
+      <c r="AC15" s="44"/>
+      <c r="AD15" s="44"/>
+      <c r="AE15" s="44"/>
+      <c r="AF15" s="44"/>
+      <c r="AG15" s="44"/>
+      <c r="AH15" s="44"/>
+      <c r="AI15" s="44"/>
+      <c r="AJ15" s="44"/>
+      <c r="AK15" s="44"/>
+      <c r="AL15" s="44"/>
+      <c r="AM15" s="44"/>
+      <c r="AN15" s="44"/>
+      <c r="AO15" s="44"/>
+      <c r="AP15" s="44"/>
+      <c r="AQ15" s="44"/>
+      <c r="AR15" s="44"/>
+      <c r="AS15" s="80"/>
     </row>
     <row r="16" spans="2:46" x14ac:dyDescent="0.15">
-      <c r="D16" s="67"/>
-      <c r="E16" s="68" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="69"/>
-      <c r="G16" s="69"/>
-      <c r="H16" s="70"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="17"/>
-      <c r="S16" s="17"/>
-      <c r="T16" s="17"/>
-      <c r="U16" s="17"/>
-      <c r="V16" s="17"/>
-      <c r="W16" s="17"/>
-      <c r="X16" s="17"/>
-      <c r="Y16" s="17"/>
-      <c r="Z16" s="17"/>
-      <c r="AA16" s="17"/>
-      <c r="AB16" s="17"/>
-      <c r="AC16" s="17"/>
-      <c r="AD16" s="17"/>
-      <c r="AE16" s="17"/>
-      <c r="AF16" s="17"/>
-      <c r="AG16" s="17"/>
-      <c r="AH16" s="17"/>
-      <c r="AI16" s="17"/>
-      <c r="AJ16" s="17"/>
-      <c r="AK16" s="17"/>
-      <c r="AL16" s="17"/>
-      <c r="AM16" s="17"/>
-      <c r="AN16" s="17"/>
-      <c r="AO16" s="17"/>
-      <c r="AP16" s="17"/>
-      <c r="AQ16" s="17"/>
-      <c r="AR16" s="17"/>
-      <c r="AS16" s="18"/>
-    </row>
-    <row r="17" spans="4:45" x14ac:dyDescent="0.15">
-      <c r="D17" s="67"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="19"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="S17" s="45"/>
-      <c r="T17" s="45"/>
-      <c r="U17" s="45"/>
-      <c r="V17" s="45"/>
-      <c r="W17" s="45"/>
-      <c r="X17" s="45"/>
-      <c r="Y17" s="45"/>
-      <c r="Z17" s="45"/>
-      <c r="AA17" s="45"/>
-      <c r="AB17" s="45"/>
-      <c r="AC17" s="45"/>
-      <c r="AD17" s="45"/>
-      <c r="AE17" s="45"/>
-      <c r="AF17" s="45"/>
-      <c r="AG17" s="45"/>
-      <c r="AH17" s="45"/>
-      <c r="AI17" s="45"/>
-      <c r="AJ17" s="45"/>
-      <c r="AK17" s="45"/>
-      <c r="AL17" s="17"/>
-      <c r="AM17" s="17"/>
-      <c r="AN17" s="17"/>
-      <c r="AO17" s="17"/>
-      <c r="AP17" s="17"/>
-      <c r="AQ17" s="17"/>
-      <c r="AR17" s="17"/>
-      <c r="AS17" s="18"/>
-    </row>
-    <row r="18" spans="4:45" x14ac:dyDescent="0.15">
-      <c r="D18" s="67"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
-      <c r="R18" s="45"/>
-      <c r="S18" s="45"/>
-      <c r="T18" s="45"/>
-      <c r="U18" s="45"/>
-      <c r="V18" s="45"/>
-      <c r="W18" s="45"/>
-      <c r="X18" s="45"/>
-      <c r="Y18" s="45"/>
-      <c r="Z18" s="45"/>
-      <c r="AA18" s="45"/>
-      <c r="AB18" s="45"/>
-      <c r="AC18" s="45"/>
-      <c r="AD18" s="45"/>
-      <c r="AE18" s="45"/>
-      <c r="AF18" s="45"/>
-      <c r="AG18" s="45"/>
-      <c r="AH18" s="45"/>
-      <c r="AI18" s="45"/>
-      <c r="AJ18" s="45"/>
-      <c r="AK18" s="45"/>
-      <c r="AL18" s="17"/>
-      <c r="AM18" s="17"/>
-      <c r="AN18" s="17"/>
-      <c r="AO18" s="17"/>
-      <c r="AP18" s="17"/>
-      <c r="AQ18" s="17"/>
-      <c r="AR18" s="17"/>
-      <c r="AS18" s="18"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="79"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="44"/>
+      <c r="O16" s="44"/>
+      <c r="P16" s="44"/>
+      <c r="Q16" s="44"/>
+      <c r="R16" s="44"/>
+      <c r="S16" s="44"/>
+      <c r="T16" s="44"/>
+      <c r="U16" s="44"/>
+      <c r="V16" s="44"/>
+      <c r="W16" s="44"/>
+      <c r="X16" s="44"/>
+      <c r="Y16" s="44"/>
+      <c r="Z16" s="44"/>
+      <c r="AA16" s="44"/>
+      <c r="AB16" s="44"/>
+      <c r="AC16" s="44"/>
+      <c r="AD16" s="44"/>
+      <c r="AE16" s="44"/>
+      <c r="AF16" s="44"/>
+      <c r="AG16" s="44"/>
+      <c r="AH16" s="44"/>
+      <c r="AI16" s="44"/>
+      <c r="AJ16" s="44"/>
+      <c r="AK16" s="44"/>
+      <c r="AL16" s="44"/>
+      <c r="AM16" s="44"/>
+      <c r="AN16" s="44"/>
+      <c r="AO16" s="44"/>
+      <c r="AP16" s="44"/>
+      <c r="AQ16" s="44"/>
+      <c r="AR16" s="44"/>
+      <c r="AS16" s="80"/>
+    </row>
+    <row r="17" spans="4:45" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D17" s="24"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="79"/>
+      <c r="L17" s="44"/>
+      <c r="M17" s="44"/>
+      <c r="N17" s="44"/>
+      <c r="O17" s="44"/>
+      <c r="P17" s="44"/>
+      <c r="Q17" s="44"/>
+      <c r="R17" s="44"/>
+      <c r="S17" s="44"/>
+      <c r="T17" s="44"/>
+      <c r="U17" s="44"/>
+      <c r="V17" s="44"/>
+      <c r="W17" s="44"/>
+      <c r="X17" s="44"/>
+      <c r="Y17" s="44"/>
+      <c r="Z17" s="44"/>
+      <c r="AA17" s="44"/>
+      <c r="AB17" s="44"/>
+      <c r="AC17" s="44"/>
+      <c r="AD17" s="44"/>
+      <c r="AE17" s="44"/>
+      <c r="AF17" s="44"/>
+      <c r="AG17" s="44"/>
+      <c r="AH17" s="44"/>
+      <c r="AI17" s="44"/>
+      <c r="AJ17" s="44"/>
+      <c r="AK17" s="44"/>
+      <c r="AL17" s="44"/>
+      <c r="AM17" s="44"/>
+      <c r="AN17" s="44"/>
+      <c r="AO17" s="44"/>
+      <c r="AP17" s="44"/>
+      <c r="AQ17" s="44"/>
+      <c r="AR17" s="44"/>
+      <c r="AS17" s="80"/>
+    </row>
+    <row r="18" spans="4:45" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D18" s="24"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="79"/>
+      <c r="L18" s="44"/>
+      <c r="M18" s="44"/>
+      <c r="N18" s="44"/>
+      <c r="O18" s="44"/>
+      <c r="P18" s="44"/>
+      <c r="Q18" s="44"/>
+      <c r="R18" s="44"/>
+      <c r="S18" s="44"/>
+      <c r="T18" s="44"/>
+      <c r="U18" s="44"/>
+      <c r="V18" s="44"/>
+      <c r="W18" s="44"/>
+      <c r="X18" s="44"/>
+      <c r="Y18" s="44"/>
+      <c r="Z18" s="44"/>
+      <c r="AA18" s="44"/>
+      <c r="AB18" s="44"/>
+      <c r="AC18" s="44"/>
+      <c r="AD18" s="44"/>
+      <c r="AE18" s="44"/>
+      <c r="AF18" s="44"/>
+      <c r="AG18" s="44"/>
+      <c r="AH18" s="44"/>
+      <c r="AI18" s="44"/>
+      <c r="AJ18" s="44"/>
+      <c r="AK18" s="44"/>
+      <c r="AL18" s="44"/>
+      <c r="AM18" s="44"/>
+      <c r="AN18" s="44"/>
+      <c r="AO18" s="44"/>
+      <c r="AP18" s="44"/>
+      <c r="AQ18" s="44"/>
+      <c r="AR18" s="44"/>
+      <c r="AS18" s="80"/>
     </row>
     <row r="19" spans="4:45" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D19" s="67"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
-      <c r="R19" s="45"/>
-      <c r="S19" s="45"/>
-      <c r="T19" s="45"/>
-      <c r="U19" s="45"/>
-      <c r="V19" s="45"/>
-      <c r="W19" s="45"/>
-      <c r="X19" s="45"/>
-      <c r="Y19" s="45"/>
-      <c r="Z19" s="45"/>
-      <c r="AA19" s="45"/>
-      <c r="AB19" s="45"/>
-      <c r="AC19" s="45"/>
-      <c r="AD19" s="45"/>
-      <c r="AE19" s="45"/>
-      <c r="AF19" s="45"/>
-      <c r="AG19" s="45"/>
-      <c r="AH19" s="45"/>
-      <c r="AI19" s="45"/>
-      <c r="AJ19" s="45"/>
-      <c r="AK19" s="45"/>
-      <c r="AL19" s="17"/>
-      <c r="AM19" s="17"/>
-      <c r="AN19" s="17"/>
-      <c r="AO19" s="17"/>
-      <c r="AP19" s="17"/>
-      <c r="AQ19" s="17"/>
-      <c r="AR19" s="17"/>
-      <c r="AS19" s="18"/>
-    </row>
-    <row r="20" spans="4:45" x14ac:dyDescent="0.15">
-      <c r="D20" s="67"/>
-      <c r="E20" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
-      <c r="R20" s="45"/>
-      <c r="S20" s="45"/>
-      <c r="T20" s="45"/>
-      <c r="U20" s="45"/>
-      <c r="V20" s="45"/>
-      <c r="W20" s="45"/>
-      <c r="X20" s="45"/>
-      <c r="Y20" s="45"/>
-      <c r="Z20" s="45"/>
-      <c r="AA20" s="45"/>
-      <c r="AB20" s="45"/>
-      <c r="AC20" s="45"/>
-      <c r="AD20" s="45"/>
-      <c r="AE20" s="45"/>
-      <c r="AF20" s="45"/>
-      <c r="AG20" s="45"/>
-      <c r="AH20" s="45"/>
-      <c r="AI20" s="45"/>
-      <c r="AJ20" s="45"/>
-      <c r="AK20" s="45"/>
-      <c r="AL20" s="17"/>
-      <c r="AM20" s="17"/>
-      <c r="AN20" s="17"/>
-      <c r="AO20" s="17"/>
-      <c r="AP20" s="17"/>
-      <c r="AQ20" s="17"/>
-      <c r="AR20" s="17"/>
-      <c r="AS20" s="18"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="79"/>
+      <c r="L19" s="44"/>
+      <c r="M19" s="44"/>
+      <c r="N19" s="44"/>
+      <c r="O19" s="44"/>
+      <c r="P19" s="44"/>
+      <c r="Q19" s="44"/>
+      <c r="R19" s="44"/>
+      <c r="S19" s="44"/>
+      <c r="T19" s="44"/>
+      <c r="U19" s="44"/>
+      <c r="V19" s="44"/>
+      <c r="W19" s="44"/>
+      <c r="X19" s="44"/>
+      <c r="Y19" s="44"/>
+      <c r="Z19" s="44"/>
+      <c r="AA19" s="44"/>
+      <c r="AB19" s="44"/>
+      <c r="AC19" s="44"/>
+      <c r="AD19" s="44"/>
+      <c r="AE19" s="44"/>
+      <c r="AF19" s="44"/>
+      <c r="AG19" s="44"/>
+      <c r="AH19" s="44"/>
+      <c r="AI19" s="44"/>
+      <c r="AJ19" s="44"/>
+      <c r="AK19" s="44"/>
+      <c r="AL19" s="44"/>
+      <c r="AM19" s="44"/>
+      <c r="AN19" s="44"/>
+      <c r="AO19" s="44"/>
+      <c r="AP19" s="44"/>
+      <c r="AQ19" s="44"/>
+      <c r="AR19" s="44"/>
+      <c r="AS19" s="80"/>
+    </row>
+    <row r="20" spans="4:45" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D20" s="24"/>
+      <c r="E20" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="79"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="44"/>
+      <c r="N20" s="44"/>
+      <c r="O20" s="44"/>
+      <c r="P20" s="44"/>
+      <c r="Q20" s="44"/>
+      <c r="R20" s="44"/>
+      <c r="S20" s="44"/>
+      <c r="T20" s="44"/>
+      <c r="U20" s="44"/>
+      <c r="V20" s="44"/>
+      <c r="W20" s="44"/>
+      <c r="X20" s="44"/>
+      <c r="Y20" s="44"/>
+      <c r="Z20" s="44"/>
+      <c r="AA20" s="44"/>
+      <c r="AB20" s="44"/>
+      <c r="AC20" s="44"/>
+      <c r="AD20" s="44"/>
+      <c r="AE20" s="44"/>
+      <c r="AF20" s="44"/>
+      <c r="AG20" s="44"/>
+      <c r="AH20" s="44"/>
+      <c r="AI20" s="44"/>
+      <c r="AJ20" s="44"/>
+      <c r="AK20" s="44"/>
+      <c r="AL20" s="44"/>
+      <c r="AM20" s="44"/>
+      <c r="AN20" s="44"/>
+      <c r="AO20" s="44"/>
+      <c r="AP20" s="44"/>
+      <c r="AQ20" s="44"/>
+      <c r="AR20" s="44"/>
+      <c r="AS20" s="80"/>
     </row>
     <row r="21" spans="4:45" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D21" s="67"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
-      <c r="R21" s="45"/>
-      <c r="S21" s="45"/>
-      <c r="T21" s="45"/>
-      <c r="U21" s="45"/>
-      <c r="V21" s="45"/>
-      <c r="W21" s="45"/>
-      <c r="X21" s="45"/>
-      <c r="Y21" s="45"/>
-      <c r="Z21" s="45"/>
-      <c r="AA21" s="45"/>
-      <c r="AB21" s="45"/>
-      <c r="AC21" s="45"/>
-      <c r="AD21" s="45"/>
-      <c r="AE21" s="45"/>
-      <c r="AF21" s="45"/>
-      <c r="AG21" s="45"/>
-      <c r="AH21" s="45"/>
-      <c r="AI21" s="45"/>
-      <c r="AJ21" s="45"/>
-      <c r="AK21" s="45"/>
-      <c r="AL21" s="17"/>
-      <c r="AM21" s="17"/>
-      <c r="AN21" s="17"/>
-      <c r="AO21" s="17"/>
-      <c r="AP21" s="17"/>
-      <c r="AQ21" s="17"/>
-      <c r="AR21" s="17"/>
-      <c r="AS21" s="18"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="79"/>
+      <c r="L21" s="44"/>
+      <c r="M21" s="44"/>
+      <c r="N21" s="44"/>
+      <c r="O21" s="44"/>
+      <c r="P21" s="44"/>
+      <c r="Q21" s="44"/>
+      <c r="R21" s="44"/>
+      <c r="S21" s="44"/>
+      <c r="T21" s="44"/>
+      <c r="U21" s="44"/>
+      <c r="V21" s="44"/>
+      <c r="W21" s="44"/>
+      <c r="X21" s="44"/>
+      <c r="Y21" s="44"/>
+      <c r="Z21" s="44"/>
+      <c r="AA21" s="44"/>
+      <c r="AB21" s="44"/>
+      <c r="AC21" s="44"/>
+      <c r="AD21" s="44"/>
+      <c r="AE21" s="44"/>
+      <c r="AF21" s="44"/>
+      <c r="AG21" s="44"/>
+      <c r="AH21" s="44"/>
+      <c r="AI21" s="44"/>
+      <c r="AJ21" s="44"/>
+      <c r="AK21" s="44"/>
+      <c r="AL21" s="44"/>
+      <c r="AM21" s="44"/>
+      <c r="AN21" s="44"/>
+      <c r="AO21" s="44"/>
+      <c r="AP21" s="44"/>
+      <c r="AQ21" s="44"/>
+      <c r="AR21" s="44"/>
+      <c r="AS21" s="80"/>
     </row>
     <row r="22" spans="4:45" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D22" s="67"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
-      <c r="R22" s="45"/>
-      <c r="S22" s="45"/>
-      <c r="T22" s="45"/>
-      <c r="U22" s="45"/>
-      <c r="V22" s="45"/>
-      <c r="W22" s="45"/>
-      <c r="X22" s="45"/>
-      <c r="Y22" s="45"/>
-      <c r="Z22" s="45"/>
-      <c r="AA22" s="45"/>
-      <c r="AB22" s="45"/>
-      <c r="AC22" s="45"/>
-      <c r="AD22" s="45"/>
-      <c r="AE22" s="45"/>
-      <c r="AF22" s="45"/>
-      <c r="AG22" s="45"/>
-      <c r="AH22" s="45"/>
-      <c r="AI22" s="45"/>
-      <c r="AJ22" s="45"/>
-      <c r="AK22" s="45"/>
-      <c r="AL22" s="17"/>
-      <c r="AM22" s="17"/>
-      <c r="AN22" s="17"/>
-      <c r="AO22" s="17"/>
-      <c r="AP22" s="17"/>
-      <c r="AQ22" s="17"/>
-      <c r="AR22" s="17"/>
-      <c r="AS22" s="18"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="79"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="44"/>
+      <c r="N22" s="44"/>
+      <c r="O22" s="44"/>
+      <c r="P22" s="44"/>
+      <c r="Q22" s="44"/>
+      <c r="R22" s="44"/>
+      <c r="S22" s="44"/>
+      <c r="T22" s="44"/>
+      <c r="U22" s="44"/>
+      <c r="V22" s="44"/>
+      <c r="W22" s="44"/>
+      <c r="X22" s="44"/>
+      <c r="Y22" s="44"/>
+      <c r="Z22" s="44"/>
+      <c r="AA22" s="44"/>
+      <c r="AB22" s="44"/>
+      <c r="AC22" s="44"/>
+      <c r="AD22" s="44"/>
+      <c r="AE22" s="44"/>
+      <c r="AF22" s="44"/>
+      <c r="AG22" s="44"/>
+      <c r="AH22" s="44"/>
+      <c r="AI22" s="44"/>
+      <c r="AJ22" s="44"/>
+      <c r="AK22" s="44"/>
+      <c r="AL22" s="44"/>
+      <c r="AM22" s="44"/>
+      <c r="AN22" s="44"/>
+      <c r="AO22" s="44"/>
+      <c r="AP22" s="44"/>
+      <c r="AQ22" s="44"/>
+      <c r="AR22" s="44"/>
+      <c r="AS22" s="80"/>
     </row>
     <row r="23" spans="4:45" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D23" s="67"/>
-      <c r="E23" s="68" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" s="69"/>
-      <c r="G23" s="69"/>
-      <c r="H23" s="70"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
-      <c r="R23" s="45"/>
-      <c r="S23" s="45"/>
-      <c r="T23" s="45"/>
-      <c r="U23" s="45"/>
-      <c r="V23" s="45"/>
-      <c r="W23" s="45"/>
-      <c r="X23" s="45"/>
-      <c r="Y23" s="45"/>
-      <c r="Z23" s="45"/>
-      <c r="AA23" s="45"/>
-      <c r="AB23" s="45"/>
-      <c r="AC23" s="45"/>
-      <c r="AD23" s="45"/>
-      <c r="AE23" s="45"/>
-      <c r="AF23" s="45"/>
-      <c r="AG23" s="45"/>
-      <c r="AH23" s="45"/>
-      <c r="AI23" s="45"/>
-      <c r="AJ23" s="45"/>
-      <c r="AK23" s="45"/>
-      <c r="AL23" s="17"/>
-      <c r="AM23" s="17"/>
-      <c r="AN23" s="17"/>
-      <c r="AO23" s="17"/>
-      <c r="AP23" s="17"/>
-      <c r="AQ23" s="17"/>
-      <c r="AR23" s="17"/>
-      <c r="AS23" s="18"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="79"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="44"/>
+      <c r="N23" s="44"/>
+      <c r="O23" s="44"/>
+      <c r="P23" s="44"/>
+      <c r="Q23" s="44"/>
+      <c r="R23" s="44"/>
+      <c r="S23" s="44"/>
+      <c r="T23" s="44"/>
+      <c r="U23" s="44"/>
+      <c r="V23" s="44"/>
+      <c r="W23" s="44"/>
+      <c r="X23" s="44"/>
+      <c r="Y23" s="44"/>
+      <c r="Z23" s="44"/>
+      <c r="AA23" s="44"/>
+      <c r="AB23" s="44"/>
+      <c r="AC23" s="44"/>
+      <c r="AD23" s="44"/>
+      <c r="AE23" s="44"/>
+      <c r="AF23" s="44"/>
+      <c r="AG23" s="44"/>
+      <c r="AH23" s="44"/>
+      <c r="AI23" s="44"/>
+      <c r="AJ23" s="44"/>
+      <c r="AK23" s="44"/>
+      <c r="AL23" s="44"/>
+      <c r="AM23" s="44"/>
+      <c r="AN23" s="44"/>
+      <c r="AO23" s="44"/>
+      <c r="AP23" s="44"/>
+      <c r="AQ23" s="44"/>
+      <c r="AR23" s="44"/>
+      <c r="AS23" s="80"/>
     </row>
     <row r="24" spans="4:45" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D24" s="67"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
-      <c r="R24" s="45"/>
-      <c r="S24" s="45"/>
-      <c r="T24" s="45"/>
-      <c r="U24" s="45"/>
-      <c r="V24" s="45"/>
-      <c r="W24" s="45"/>
-      <c r="X24" s="45"/>
-      <c r="Y24" s="45"/>
-      <c r="Z24" s="45"/>
-      <c r="AA24" s="45"/>
-      <c r="AB24" s="45"/>
-      <c r="AC24" s="45"/>
-      <c r="AD24" s="45"/>
-      <c r="AE24" s="45"/>
-      <c r="AF24" s="45"/>
-      <c r="AG24" s="45"/>
-      <c r="AH24" s="45"/>
-      <c r="AI24" s="45"/>
-      <c r="AJ24" s="45"/>
-      <c r="AK24" s="45"/>
-      <c r="AL24" s="17"/>
-      <c r="AM24" s="17"/>
-      <c r="AN24" s="17"/>
-      <c r="AO24" s="17"/>
-      <c r="AP24" s="17"/>
-      <c r="AQ24" s="17"/>
-      <c r="AR24" s="17"/>
-      <c r="AS24" s="18"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="79"/>
+      <c r="L24" s="44"/>
+      <c r="M24" s="44"/>
+      <c r="N24" s="44"/>
+      <c r="O24" s="44"/>
+      <c r="P24" s="44"/>
+      <c r="Q24" s="44"/>
+      <c r="R24" s="44"/>
+      <c r="S24" s="44"/>
+      <c r="T24" s="44"/>
+      <c r="U24" s="44"/>
+      <c r="V24" s="44"/>
+      <c r="W24" s="44"/>
+      <c r="X24" s="44"/>
+      <c r="Y24" s="44"/>
+      <c r="Z24" s="44"/>
+      <c r="AA24" s="44"/>
+      <c r="AB24" s="44"/>
+      <c r="AC24" s="44"/>
+      <c r="AD24" s="44"/>
+      <c r="AE24" s="44"/>
+      <c r="AF24" s="44"/>
+      <c r="AG24" s="44"/>
+      <c r="AH24" s="44"/>
+      <c r="AI24" s="44"/>
+      <c r="AJ24" s="44"/>
+      <c r="AK24" s="44"/>
+      <c r="AL24" s="44"/>
+      <c r="AM24" s="44"/>
+      <c r="AN24" s="44"/>
+      <c r="AO24" s="44"/>
+      <c r="AP24" s="44"/>
+      <c r="AQ24" s="44"/>
+      <c r="AR24" s="44"/>
+      <c r="AS24" s="80"/>
     </row>
     <row r="25" spans="4:45" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D25" s="67"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="17"/>
-      <c r="R25" s="45"/>
-      <c r="S25" s="45"/>
-      <c r="T25" s="45"/>
-      <c r="U25" s="45"/>
-      <c r="V25" s="45"/>
-      <c r="W25" s="45"/>
-      <c r="X25" s="45"/>
-      <c r="Y25" s="45"/>
-      <c r="Z25" s="45"/>
-      <c r="AA25" s="45"/>
-      <c r="AB25" s="45"/>
-      <c r="AC25" s="45"/>
-      <c r="AD25" s="45"/>
-      <c r="AE25" s="45"/>
-      <c r="AF25" s="45"/>
-      <c r="AG25" s="45"/>
-      <c r="AH25" s="45"/>
-      <c r="AI25" s="45"/>
-      <c r="AJ25" s="45"/>
-      <c r="AK25" s="45"/>
-      <c r="AL25" s="17"/>
-      <c r="AM25" s="17"/>
-      <c r="AN25" s="17"/>
-      <c r="AO25" s="17"/>
-      <c r="AP25" s="17"/>
-      <c r="AQ25" s="17"/>
-      <c r="AR25" s="17"/>
-      <c r="AS25" s="18"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="79"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="44"/>
+      <c r="N25" s="44"/>
+      <c r="O25" s="44"/>
+      <c r="P25" s="44"/>
+      <c r="Q25" s="44"/>
+      <c r="R25" s="44"/>
+      <c r="S25" s="44"/>
+      <c r="T25" s="44"/>
+      <c r="U25" s="44"/>
+      <c r="V25" s="44"/>
+      <c r="W25" s="44"/>
+      <c r="X25" s="44"/>
+      <c r="Y25" s="44"/>
+      <c r="Z25" s="44"/>
+      <c r="AA25" s="44"/>
+      <c r="AB25" s="44"/>
+      <c r="AC25" s="44"/>
+      <c r="AD25" s="44"/>
+      <c r="AE25" s="44"/>
+      <c r="AF25" s="44"/>
+      <c r="AG25" s="44"/>
+      <c r="AH25" s="44"/>
+      <c r="AI25" s="44"/>
+      <c r="AJ25" s="44"/>
+      <c r="AK25" s="44"/>
+      <c r="AL25" s="44"/>
+      <c r="AM25" s="44"/>
+      <c r="AN25" s="44"/>
+      <c r="AO25" s="44"/>
+      <c r="AP25" s="44"/>
+      <c r="AQ25" s="44"/>
+      <c r="AR25" s="44"/>
+      <c r="AS25" s="80"/>
     </row>
     <row r="26" spans="4:45" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D26" s="67"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
-      <c r="R26" s="17"/>
-      <c r="S26" s="17"/>
-      <c r="T26" s="17"/>
-      <c r="U26" s="17"/>
-      <c r="V26" s="17"/>
-      <c r="W26" s="17"/>
-      <c r="X26" s="17"/>
-      <c r="Y26" s="17"/>
-      <c r="Z26" s="17"/>
-      <c r="AA26" s="17"/>
-      <c r="AB26" s="17"/>
-      <c r="AC26" s="17"/>
-      <c r="AD26" s="17"/>
-      <c r="AE26" s="17"/>
-      <c r="AF26" s="17"/>
-      <c r="AG26" s="17"/>
-      <c r="AH26" s="17"/>
-      <c r="AI26" s="17"/>
-      <c r="AJ26" s="17"/>
-      <c r="AK26" s="17"/>
-      <c r="AL26" s="17"/>
-      <c r="AM26" s="17"/>
-      <c r="AN26" s="17"/>
-      <c r="AO26" s="17"/>
-      <c r="AP26" s="17"/>
-      <c r="AQ26" s="17"/>
-      <c r="AR26" s="17"/>
-      <c r="AS26" s="18"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="79"/>
+      <c r="L26" s="44"/>
+      <c r="M26" s="44"/>
+      <c r="N26" s="44"/>
+      <c r="O26" s="44"/>
+      <c r="P26" s="44"/>
+      <c r="Q26" s="44"/>
+      <c r="R26" s="44"/>
+      <c r="S26" s="44"/>
+      <c r="T26" s="44"/>
+      <c r="U26" s="44"/>
+      <c r="V26" s="44"/>
+      <c r="W26" s="44"/>
+      <c r="X26" s="44"/>
+      <c r="Y26" s="44"/>
+      <c r="Z26" s="44"/>
+      <c r="AA26" s="44"/>
+      <c r="AB26" s="44"/>
+      <c r="AC26" s="44"/>
+      <c r="AD26" s="44"/>
+      <c r="AE26" s="44"/>
+      <c r="AF26" s="44"/>
+      <c r="AG26" s="44"/>
+      <c r="AH26" s="44"/>
+      <c r="AI26" s="44"/>
+      <c r="AJ26" s="44"/>
+      <c r="AK26" s="44"/>
+      <c r="AL26" s="44"/>
+      <c r="AM26" s="44"/>
+      <c r="AN26" s="44"/>
+      <c r="AO26" s="44"/>
+      <c r="AP26" s="44"/>
+      <c r="AQ26" s="44"/>
+      <c r="AR26" s="44"/>
+      <c r="AS26" s="80"/>
     </row>
     <row r="27" spans="4:45" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D27" s="67"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
-      <c r="R27" s="17"/>
-      <c r="S27" s="17"/>
-      <c r="T27" s="17"/>
-      <c r="U27" s="17"/>
-      <c r="V27" s="17"/>
-      <c r="W27" s="17"/>
-      <c r="X27" s="17"/>
-      <c r="Y27" s="17"/>
-      <c r="Z27" s="17"/>
-      <c r="AA27" s="17"/>
-      <c r="AB27" s="17"/>
-      <c r="AC27" s="17"/>
-      <c r="AD27" s="17"/>
-      <c r="AE27" s="17"/>
-      <c r="AF27" s="17"/>
-      <c r="AG27" s="17"/>
-      <c r="AH27" s="17"/>
-      <c r="AI27" s="17"/>
-      <c r="AJ27" s="17"/>
-      <c r="AK27" s="17"/>
-      <c r="AL27" s="17"/>
-      <c r="AM27" s="17"/>
-      <c r="AN27" s="17"/>
-      <c r="AO27" s="17"/>
-      <c r="AP27" s="17"/>
-      <c r="AQ27" s="17"/>
-      <c r="AR27" s="17"/>
-      <c r="AS27" s="18"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="79"/>
+      <c r="L27" s="44"/>
+      <c r="M27" s="44"/>
+      <c r="N27" s="44"/>
+      <c r="O27" s="44"/>
+      <c r="P27" s="44"/>
+      <c r="Q27" s="44"/>
+      <c r="R27" s="44"/>
+      <c r="S27" s="44"/>
+      <c r="T27" s="44"/>
+      <c r="U27" s="44"/>
+      <c r="V27" s="44"/>
+      <c r="W27" s="44"/>
+      <c r="X27" s="44"/>
+      <c r="Y27" s="44"/>
+      <c r="Z27" s="44"/>
+      <c r="AA27" s="44"/>
+      <c r="AB27" s="44"/>
+      <c r="AC27" s="44"/>
+      <c r="AD27" s="44"/>
+      <c r="AE27" s="44"/>
+      <c r="AF27" s="44"/>
+      <c r="AG27" s="44"/>
+      <c r="AH27" s="44"/>
+      <c r="AI27" s="44"/>
+      <c r="AJ27" s="44"/>
+      <c r="AK27" s="44"/>
+      <c r="AL27" s="44"/>
+      <c r="AM27" s="44"/>
+      <c r="AN27" s="44"/>
+      <c r="AO27" s="44"/>
+      <c r="AP27" s="44"/>
+      <c r="AQ27" s="44"/>
+      <c r="AR27" s="44"/>
+      <c r="AS27" s="80"/>
     </row>
     <row r="28" spans="4:45" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D28" s="67"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
-      <c r="R28" s="17"/>
-      <c r="S28" s="17"/>
-      <c r="T28" s="17"/>
-      <c r="U28" s="17"/>
-      <c r="V28" s="17"/>
-      <c r="W28" s="17"/>
-      <c r="X28" s="17"/>
-      <c r="Y28" s="17"/>
-      <c r="Z28" s="17"/>
-      <c r="AA28" s="17"/>
-      <c r="AB28" s="17"/>
-      <c r="AC28" s="17"/>
-      <c r="AD28" s="17"/>
-      <c r="AE28" s="17"/>
-      <c r="AF28" s="17"/>
-      <c r="AG28" s="17"/>
-      <c r="AH28" s="17"/>
-      <c r="AI28" s="17"/>
-      <c r="AJ28" s="17"/>
-      <c r="AK28" s="17"/>
-      <c r="AL28" s="17"/>
-      <c r="AM28" s="17"/>
-      <c r="AN28" s="17"/>
-      <c r="AO28" s="17"/>
-      <c r="AP28" s="17"/>
-      <c r="AQ28" s="17"/>
-      <c r="AR28" s="17"/>
-      <c r="AS28" s="18"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="79"/>
+      <c r="L28" s="44"/>
+      <c r="M28" s="44"/>
+      <c r="N28" s="44"/>
+      <c r="O28" s="44"/>
+      <c r="P28" s="44"/>
+      <c r="Q28" s="44"/>
+      <c r="R28" s="44"/>
+      <c r="S28" s="44"/>
+      <c r="T28" s="44"/>
+      <c r="U28" s="44"/>
+      <c r="V28" s="44"/>
+      <c r="W28" s="44"/>
+      <c r="X28" s="44"/>
+      <c r="Y28" s="44"/>
+      <c r="Z28" s="44"/>
+      <c r="AA28" s="44"/>
+      <c r="AB28" s="44"/>
+      <c r="AC28" s="44"/>
+      <c r="AD28" s="44"/>
+      <c r="AE28" s="44"/>
+      <c r="AF28" s="44"/>
+      <c r="AG28" s="44"/>
+      <c r="AH28" s="44"/>
+      <c r="AI28" s="44"/>
+      <c r="AJ28" s="44"/>
+      <c r="AK28" s="44"/>
+      <c r="AL28" s="44"/>
+      <c r="AM28" s="44"/>
+      <c r="AN28" s="44"/>
+      <c r="AO28" s="44"/>
+      <c r="AP28" s="44"/>
+      <c r="AQ28" s="44"/>
+      <c r="AR28" s="44"/>
+      <c r="AS28" s="80"/>
     </row>
     <row r="29" spans="4:45" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D29" s="67"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
-      <c r="R29" s="17"/>
-      <c r="S29" s="17"/>
-      <c r="T29" s="17"/>
-      <c r="U29" s="17"/>
-      <c r="V29" s="17"/>
-      <c r="W29" s="17"/>
-      <c r="X29" s="17"/>
-      <c r="Y29" s="17"/>
-      <c r="Z29" s="17"/>
-      <c r="AA29" s="17"/>
-      <c r="AB29" s="17"/>
-      <c r="AC29" s="17"/>
-      <c r="AD29" s="17"/>
-      <c r="AE29" s="17"/>
-      <c r="AF29" s="17"/>
-      <c r="AG29" s="17"/>
-      <c r="AH29" s="17"/>
-      <c r="AI29" s="17"/>
-      <c r="AJ29" s="17"/>
-      <c r="AK29" s="17"/>
-      <c r="AL29" s="17"/>
-      <c r="AM29" s="17"/>
-      <c r="AN29" s="17"/>
-      <c r="AO29" s="17"/>
-      <c r="AP29" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="AQ29" s="37"/>
-      <c r="AR29" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="AS29" s="42"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="79"/>
+      <c r="L29" s="44"/>
+      <c r="M29" s="44"/>
+      <c r="N29" s="44"/>
+      <c r="O29" s="44"/>
+      <c r="P29" s="44"/>
+      <c r="Q29" s="44"/>
+      <c r="R29" s="44"/>
+      <c r="S29" s="44"/>
+      <c r="T29" s="44"/>
+      <c r="U29" s="44"/>
+      <c r="V29" s="44"/>
+      <c r="W29" s="44"/>
+      <c r="X29" s="44"/>
+      <c r="Y29" s="44"/>
+      <c r="Z29" s="44"/>
+      <c r="AA29" s="44"/>
+      <c r="AB29" s="44"/>
+      <c r="AC29" s="44"/>
+      <c r="AD29" s="44"/>
+      <c r="AE29" s="44"/>
+      <c r="AF29" s="44"/>
+      <c r="AG29" s="44"/>
+      <c r="AH29" s="44"/>
+      <c r="AI29" s="44"/>
+      <c r="AJ29" s="44"/>
+      <c r="AK29" s="44"/>
+      <c r="AL29" s="44"/>
+      <c r="AM29" s="44"/>
+      <c r="AN29" s="44"/>
+      <c r="AO29" s="44"/>
+      <c r="AP29" s="44"/>
+      <c r="AQ29" s="44"/>
+      <c r="AR29" s="44"/>
+      <c r="AS29" s="80"/>
     </row>
     <row r="30" spans="4:45" x14ac:dyDescent="0.15">
-      <c r="D30" s="71"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="72"/>
-      <c r="K30" s="20"/>
-      <c r="L30" s="20"/>
-      <c r="M30" s="20"/>
-      <c r="N30" s="20"/>
-      <c r="O30" s="20"/>
-      <c r="P30" s="20"/>
-      <c r="Q30" s="20"/>
-      <c r="R30" s="20"/>
-      <c r="S30" s="20"/>
-      <c r="T30" s="20"/>
-      <c r="U30" s="20"/>
-      <c r="V30" s="20"/>
-      <c r="W30" s="20"/>
-      <c r="X30" s="20"/>
-      <c r="Y30" s="20"/>
-      <c r="Z30" s="20"/>
-      <c r="AA30" s="20"/>
-      <c r="AB30" s="20"/>
-      <c r="AC30" s="20"/>
-      <c r="AD30" s="20"/>
-      <c r="AE30" s="20"/>
-      <c r="AF30" s="20"/>
-      <c r="AG30" s="20"/>
-      <c r="AH30" s="20"/>
-      <c r="AI30" s="20"/>
-      <c r="AJ30" s="20"/>
-      <c r="AK30" s="20"/>
-      <c r="AL30" s="20"/>
-      <c r="AM30" s="20"/>
-      <c r="AN30" s="20"/>
-      <c r="AO30" s="20"/>
-      <c r="AP30" s="31"/>
-      <c r="AQ30" s="34"/>
-      <c r="AR30" s="43"/>
-      <c r="AS30" s="44"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="81"/>
+      <c r="L30" s="82"/>
+      <c r="M30" s="82"/>
+      <c r="N30" s="82"/>
+      <c r="O30" s="82"/>
+      <c r="P30" s="82"/>
+      <c r="Q30" s="82"/>
+      <c r="R30" s="82"/>
+      <c r="S30" s="82"/>
+      <c r="T30" s="82"/>
+      <c r="U30" s="82"/>
+      <c r="V30" s="82"/>
+      <c r="W30" s="82"/>
+      <c r="X30" s="82"/>
+      <c r="Y30" s="82"/>
+      <c r="Z30" s="82"/>
+      <c r="AA30" s="82"/>
+      <c r="AB30" s="82"/>
+      <c r="AC30" s="82"/>
+      <c r="AD30" s="82"/>
+      <c r="AE30" s="82"/>
+      <c r="AF30" s="82"/>
+      <c r="AG30" s="82"/>
+      <c r="AH30" s="82"/>
+      <c r="AI30" s="82"/>
+      <c r="AJ30" s="82"/>
+      <c r="AK30" s="82"/>
+      <c r="AL30" s="82"/>
+      <c r="AM30" s="82"/>
+      <c r="AN30" s="82"/>
+      <c r="AO30" s="82"/>
+      <c r="AP30" s="82"/>
+      <c r="AQ30" s="82"/>
+      <c r="AR30" s="82"/>
+      <c r="AS30" s="83"/>
     </row>
     <row r="33" spans="4:45" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="35" spans="4:45" x14ac:dyDescent="0.15">
@@ -2654,11 +2739,14 @@
       <c r="AS35" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="AP29:AQ30"/>
-    <mergeCell ref="AR29:AS30"/>
+  <mergeCells count="18">
+    <mergeCell ref="G2:M3"/>
+    <mergeCell ref="B4:F5"/>
+    <mergeCell ref="G4:M5"/>
+    <mergeCell ref="N2:AC5"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="B2:F3"/>
     <mergeCell ref="E23:H23"/>
-    <mergeCell ref="R17:AK25"/>
     <mergeCell ref="AD9:AI10"/>
     <mergeCell ref="AM9:AN10"/>
     <mergeCell ref="AO9:AP10"/>
@@ -2669,12 +2757,7 @@
     <mergeCell ref="J9:Z10"/>
     <mergeCell ref="AA9:AB10"/>
     <mergeCell ref="AJ9:AK10"/>
-    <mergeCell ref="G2:M3"/>
-    <mergeCell ref="B4:F5"/>
-    <mergeCell ref="G4:M5"/>
-    <mergeCell ref="N2:AC5"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="B2:F3"/>
+    <mergeCell ref="K12:AS30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2687,10 +2770,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:BK42"/>
+  <dimension ref="A2:BL42"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="AK33" sqref="AK33"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="AO16" sqref="AO16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2699,150 +2782,150 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:63" x14ac:dyDescent="0.15">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25" t="s">
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="26"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="49"/>
     </row>
     <row r="3" spans="2:63" x14ac:dyDescent="0.15">
-      <c r="B3" s="40"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="28"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="51"/>
     </row>
     <row r="4" spans="2:63" x14ac:dyDescent="0.15">
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30" t="s">
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="33"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="54"/>
     </row>
     <row r="5" spans="2:63" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="31"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="34"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="37"/>
     </row>
     <row r="6" spans="2:63" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="62" t="s">
+      <c r="J6" s="59"/>
+      <c r="K6" s="59"/>
+      <c r="L6" s="59"/>
+      <c r="M6" s="59"/>
+      <c r="N6" s="59"/>
+      <c r="O6" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="P6" s="59"/>
+      <c r="Q6" s="59"/>
+      <c r="R6" s="59"/>
+      <c r="S6" s="59"/>
+      <c r="T6" s="59"/>
+      <c r="U6" s="59"/>
+      <c r="V6" s="59"/>
+      <c r="W6" s="59"/>
+      <c r="X6" s="59"/>
+      <c r="Y6" s="59"/>
+      <c r="Z6" s="59"/>
+      <c r="AA6" s="59"/>
+      <c r="AB6" s="59"/>
+      <c r="AC6" s="59"/>
+      <c r="AD6" s="59"/>
+      <c r="AE6" s="59"/>
+      <c r="AF6" s="59"/>
+      <c r="AG6" s="59"/>
+      <c r="AH6" s="59"/>
+      <c r="AI6" s="59"/>
+      <c r="AJ6" s="60"/>
+      <c r="AK6" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="63"/>
-      <c r="K6" s="63"/>
-      <c r="L6" s="63"/>
-      <c r="M6" s="63"/>
-      <c r="N6" s="63"/>
-      <c r="O6" s="62" t="s">
-        <v>1</v>
-      </c>
-      <c r="P6" s="63"/>
-      <c r="Q6" s="63"/>
-      <c r="R6" s="63"/>
-      <c r="S6" s="63"/>
-      <c r="T6" s="63"/>
-      <c r="U6" s="63"/>
-      <c r="V6" s="63"/>
-      <c r="W6" s="63"/>
-      <c r="X6" s="63"/>
-      <c r="Y6" s="63"/>
-      <c r="Z6" s="63"/>
-      <c r="AA6" s="63"/>
-      <c r="AB6" s="63"/>
-      <c r="AC6" s="63"/>
-      <c r="AD6" s="63"/>
-      <c r="AE6" s="63"/>
-      <c r="AF6" s="63"/>
-      <c r="AG6" s="63"/>
-      <c r="AH6" s="63"/>
-      <c r="AI6" s="63"/>
-      <c r="AJ6" s="64"/>
-      <c r="AK6" s="62" t="s">
+      <c r="AL6" s="59"/>
+      <c r="AM6" s="59"/>
+      <c r="AN6" s="59"/>
+      <c r="AO6" s="59"/>
+      <c r="AP6" s="59"/>
+      <c r="AQ6" s="59"/>
+      <c r="AR6" s="60"/>
+      <c r="AS6" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="AL6" s="63"/>
-      <c r="AM6" s="63"/>
-      <c r="AN6" s="63"/>
-      <c r="AO6" s="63"/>
-      <c r="AP6" s="63"/>
-      <c r="AQ6" s="63"/>
-      <c r="AR6" s="64"/>
-      <c r="AS6" s="62" t="s">
+      <c r="AT6" s="59"/>
+      <c r="AU6" s="59"/>
+      <c r="AV6" s="59"/>
+      <c r="AW6" s="59"/>
+      <c r="AX6" s="59"/>
+      <c r="AY6" s="59"/>
+      <c r="AZ6" s="59"/>
+      <c r="BA6" s="59"/>
+      <c r="BB6" s="59"/>
+      <c r="BC6" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="AT6" s="63"/>
-      <c r="AU6" s="63"/>
-      <c r="AV6" s="63"/>
-      <c r="AW6" s="63"/>
-      <c r="AX6" s="63"/>
-      <c r="AY6" s="63"/>
-      <c r="AZ6" s="63"/>
-      <c r="BA6" s="63"/>
-      <c r="BB6" s="63"/>
-      <c r="BC6" s="62" t="s">
+      <c r="BD6" s="59"/>
+      <c r="BE6" s="59"/>
+      <c r="BF6" s="59"/>
+      <c r="BG6" s="59"/>
+      <c r="BH6" s="59"/>
+      <c r="BI6" s="60"/>
+      <c r="BJ6" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="BD6" s="63"/>
-      <c r="BE6" s="63"/>
-      <c r="BF6" s="63"/>
-      <c r="BG6" s="63"/>
-      <c r="BH6" s="63"/>
-      <c r="BI6" s="64"/>
-      <c r="BJ6" s="63" t="s">
-        <v>15</v>
-      </c>
-      <c r="BK6" s="64"/>
+      <c r="BK6" s="60"/>
     </row>
     <row r="7" spans="2:63" x14ac:dyDescent="0.15">
       <c r="B7" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -2851,7 +2934,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="6"/>
       <c r="I7" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -2859,7 +2942,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="6"/>
       <c r="O7" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
@@ -2883,7 +2966,7 @@
       <c r="AI7" s="1"/>
       <c r="AJ7" s="6"/>
       <c r="AK7" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AL7" s="1"/>
       <c r="AM7" s="1"/>
@@ -2894,7 +2977,7 @@
       <c r="AR7" s="6"/>
       <c r="AS7" s="1"/>
       <c r="AT7" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AU7" s="1"/>
       <c r="AV7" s="1"/>
@@ -2905,7 +2988,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="6"/>
       <c r="BC7" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="BD7" s="1"/>
       <c r="BE7" s="1"/>
@@ -2931,7 +3014,7 @@
       <c r="M8" s="8"/>
       <c r="N8" s="9"/>
       <c r="O8" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="P8" s="8"/>
       <c r="Q8" s="8"/>
@@ -2955,7 +3038,7 @@
       <c r="AI8" s="8"/>
       <c r="AJ8" s="9"/>
       <c r="AK8" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AL8" s="8"/>
       <c r="AM8" s="8"/>
@@ -2966,7 +3049,7 @@
       <c r="AR8" s="9"/>
       <c r="AS8" s="8"/>
       <c r="AT8" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AU8" s="8"/>
       <c r="AV8" s="8"/>
@@ -2988,7 +3071,7 @@
     </row>
     <row r="9" spans="2:63" x14ac:dyDescent="0.15">
       <c r="B9" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -2997,7 +3080,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="4"/>
       <c r="I9" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
@@ -3005,7 +3088,7 @@
       <c r="M9" s="3"/>
       <c r="N9" s="4"/>
       <c r="O9" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
@@ -3029,7 +3112,7 @@
       <c r="AI9" s="3"/>
       <c r="AJ9" s="4"/>
       <c r="AK9" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AL9" s="3"/>
       <c r="AM9" s="3"/>
@@ -3040,7 +3123,7 @@
       <c r="AR9" s="4"/>
       <c r="AS9" s="3"/>
       <c r="AT9" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AU9" s="3"/>
       <c r="AV9" s="3"/>
@@ -3051,7 +3134,7 @@
       <c r="BA9" s="3"/>
       <c r="BB9" s="4"/>
       <c r="BC9" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="BD9" s="3"/>
       <c r="BE9" s="3"/>
@@ -3077,7 +3160,7 @@
       <c r="M10" s="8"/>
       <c r="N10" s="9"/>
       <c r="O10" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="P10" s="8"/>
       <c r="Q10" s="8"/>
@@ -3101,7 +3184,7 @@
       <c r="AI10" s="8"/>
       <c r="AJ10" s="9"/>
       <c r="AK10" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AL10" s="8"/>
       <c r="AM10" s="8"/>
@@ -3112,7 +3195,7 @@
       <c r="AR10" s="9"/>
       <c r="AS10" s="8"/>
       <c r="AT10" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AU10" s="8"/>
       <c r="AV10" s="8"/>
@@ -3134,7 +3217,7 @@
     </row>
     <row r="11" spans="2:63" x14ac:dyDescent="0.15">
       <c r="B11" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -3143,15 +3226,15 @@
       <c r="G11" s="3"/>
       <c r="H11" s="4"/>
       <c r="I11" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="4"/>
-      <c r="O11" s="22" t="s">
-        <v>52</v>
+      <c r="O11" s="20" t="s">
+        <v>50</v>
       </c>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
@@ -3175,7 +3258,7 @@
       <c r="AI11" s="3"/>
       <c r="AJ11" s="4"/>
       <c r="AK11" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AL11" s="3"/>
       <c r="AM11" s="3"/>
@@ -3186,7 +3269,7 @@
       <c r="AR11" s="4"/>
       <c r="AS11" s="3"/>
       <c r="AT11" s="3" t="s">
-        <v>60</v>
+        <v>123</v>
       </c>
       <c r="AU11" s="3"/>
       <c r="AV11" s="3"/>
@@ -3197,7 +3280,7 @@
       <c r="BA11" s="3"/>
       <c r="BB11" s="4"/>
       <c r="BC11" s="3" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="BD11" s="3"/>
       <c r="BE11" s="3"/>
@@ -3224,7 +3307,7 @@
       <c r="N12" s="9"/>
       <c r="O12" s="8"/>
       <c r="P12" s="8" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="Q12" s="8"/>
       <c r="R12" s="8"/>
@@ -3247,7 +3330,7 @@
       <c r="AI12" s="8"/>
       <c r="AJ12" s="9"/>
       <c r="AK12" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AL12" s="8"/>
       <c r="AM12" s="8"/>
@@ -3257,7 +3340,9 @@
       <c r="AQ12" s="8"/>
       <c r="AR12" s="9"/>
       <c r="AS12" s="8"/>
-      <c r="AT12" s="8"/>
+      <c r="AT12" s="8" t="s">
+        <v>124</v>
+      </c>
       <c r="AU12" s="8"/>
       <c r="AV12" s="8"/>
       <c r="AW12" s="8"/>
@@ -3278,7 +3363,7 @@
     </row>
     <row r="13" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -3287,39 +3372,39 @@
       <c r="G13" s="3"/>
       <c r="H13" s="4"/>
       <c r="I13" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J13" s="12"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" s="4"/>
-      <c r="O13" s="53" t="s">
+      <c r="O13" s="67" t="s">
+        <v>52</v>
+      </c>
+      <c r="P13" s="68"/>
+      <c r="Q13" s="68"/>
+      <c r="R13" s="68"/>
+      <c r="S13" s="68"/>
+      <c r="T13" s="68"/>
+      <c r="U13" s="68"/>
+      <c r="V13" s="68"/>
+      <c r="W13" s="68"/>
+      <c r="X13" s="68"/>
+      <c r="Y13" s="68"/>
+      <c r="Z13" s="68"/>
+      <c r="AA13" s="68"/>
+      <c r="AB13" s="68"/>
+      <c r="AC13" s="68"/>
+      <c r="AD13" s="68"/>
+      <c r="AE13" s="68"/>
+      <c r="AF13" s="68"/>
+      <c r="AG13" s="68"/>
+      <c r="AH13" s="68"/>
+      <c r="AI13" s="68"/>
+      <c r="AJ13" s="69"/>
+      <c r="AK13" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="P13" s="54"/>
-      <c r="Q13" s="54"/>
-      <c r="R13" s="54"/>
-      <c r="S13" s="54"/>
-      <c r="T13" s="54"/>
-      <c r="U13" s="54"/>
-      <c r="V13" s="54"/>
-      <c r="W13" s="54"/>
-      <c r="X13" s="54"/>
-      <c r="Y13" s="54"/>
-      <c r="Z13" s="54"/>
-      <c r="AA13" s="54"/>
-      <c r="AB13" s="54"/>
-      <c r="AC13" s="54"/>
-      <c r="AD13" s="54"/>
-      <c r="AE13" s="54"/>
-      <c r="AF13" s="54"/>
-      <c r="AG13" s="54"/>
-      <c r="AH13" s="54"/>
-      <c r="AI13" s="54"/>
-      <c r="AJ13" s="55"/>
-      <c r="AK13" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="AL13" s="3"/>
       <c r="AM13" s="3"/>
@@ -3330,7 +3415,7 @@
       <c r="AR13" s="4"/>
       <c r="AS13" s="3"/>
       <c r="AT13" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AU13" s="3"/>
       <c r="AV13" s="3"/>
@@ -3341,7 +3426,7 @@
       <c r="BA13" s="3"/>
       <c r="BB13" s="4"/>
       <c r="BC13" s="3" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="BD13" s="3"/>
       <c r="BE13" s="3"/>
@@ -3366,28 +3451,28 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="6"/>
-      <c r="O14" s="56"/>
-      <c r="P14" s="57"/>
-      <c r="Q14" s="57"/>
-      <c r="R14" s="57"/>
-      <c r="S14" s="57"/>
-      <c r="T14" s="57"/>
-      <c r="U14" s="57"/>
-      <c r="V14" s="57"/>
-      <c r="W14" s="57"/>
-      <c r="X14" s="57"/>
-      <c r="Y14" s="57"/>
-      <c r="Z14" s="57"/>
-      <c r="AA14" s="57"/>
-      <c r="AB14" s="57"/>
-      <c r="AC14" s="57"/>
-      <c r="AD14" s="57"/>
-      <c r="AE14" s="57"/>
-      <c r="AF14" s="57"/>
-      <c r="AG14" s="57"/>
-      <c r="AH14" s="57"/>
-      <c r="AI14" s="57"/>
-      <c r="AJ14" s="58"/>
+      <c r="O14" s="70"/>
+      <c r="P14" s="71"/>
+      <c r="Q14" s="71"/>
+      <c r="R14" s="71"/>
+      <c r="S14" s="71"/>
+      <c r="T14" s="71"/>
+      <c r="U14" s="71"/>
+      <c r="V14" s="71"/>
+      <c r="W14" s="71"/>
+      <c r="X14" s="71"/>
+      <c r="Y14" s="71"/>
+      <c r="Z14" s="71"/>
+      <c r="AA14" s="71"/>
+      <c r="AB14" s="71"/>
+      <c r="AC14" s="71"/>
+      <c r="AD14" s="71"/>
+      <c r="AE14" s="71"/>
+      <c r="AF14" s="71"/>
+      <c r="AG14" s="71"/>
+      <c r="AH14" s="71"/>
+      <c r="AI14" s="71"/>
+      <c r="AJ14" s="72"/>
       <c r="AK14" s="1"/>
       <c r="AL14" s="1"/>
       <c r="AM14" s="1"/>
@@ -3397,8 +3482,8 @@
       <c r="AQ14" s="1"/>
       <c r="AR14" s="6"/>
       <c r="AS14" s="1"/>
-      <c r="AT14" s="21" t="s">
-        <v>61</v>
+      <c r="AT14" s="19" t="s">
+        <v>58</v>
       </c>
       <c r="AU14" s="1"/>
       <c r="AV14" s="1"/>
@@ -3432,28 +3517,28 @@
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
       <c r="N15" s="9"/>
-      <c r="O15" s="59"/>
-      <c r="P15" s="60"/>
-      <c r="Q15" s="60"/>
-      <c r="R15" s="60"/>
-      <c r="S15" s="60"/>
-      <c r="T15" s="60"/>
-      <c r="U15" s="60"/>
-      <c r="V15" s="60"/>
-      <c r="W15" s="60"/>
-      <c r="X15" s="60"/>
-      <c r="Y15" s="60"/>
-      <c r="Z15" s="60"/>
-      <c r="AA15" s="60"/>
-      <c r="AB15" s="60"/>
-      <c r="AC15" s="60"/>
-      <c r="AD15" s="60"/>
-      <c r="AE15" s="60"/>
-      <c r="AF15" s="60"/>
-      <c r="AG15" s="60"/>
-      <c r="AH15" s="60"/>
-      <c r="AI15" s="60"/>
-      <c r="AJ15" s="61"/>
+      <c r="O15" s="73"/>
+      <c r="P15" s="74"/>
+      <c r="Q15" s="74"/>
+      <c r="R15" s="74"/>
+      <c r="S15" s="74"/>
+      <c r="T15" s="74"/>
+      <c r="U15" s="74"/>
+      <c r="V15" s="74"/>
+      <c r="W15" s="74"/>
+      <c r="X15" s="74"/>
+      <c r="Y15" s="74"/>
+      <c r="Z15" s="74"/>
+      <c r="AA15" s="74"/>
+      <c r="AB15" s="74"/>
+      <c r="AC15" s="74"/>
+      <c r="AD15" s="74"/>
+      <c r="AE15" s="74"/>
+      <c r="AF15" s="74"/>
+      <c r="AG15" s="74"/>
+      <c r="AH15" s="74"/>
+      <c r="AI15" s="74"/>
+      <c r="AJ15" s="75"/>
       <c r="AK15" s="8"/>
       <c r="AL15" s="8"/>
       <c r="AM15" s="8"/>
@@ -3484,7 +3569,7 @@
     </row>
     <row r="16" spans="2:63" x14ac:dyDescent="0.15">
       <c r="B16" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -3492,16 +3577,16 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="4"/>
-      <c r="I16" s="22" t="s">
-        <v>63</v>
+      <c r="I16" s="20" t="s">
+        <v>60</v>
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="4"/>
-      <c r="O16" s="22" t="s">
-        <v>64</v>
+      <c r="O16" s="20" t="s">
+        <v>61</v>
       </c>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
@@ -3524,8 +3609,8 @@
       <c r="AH16" s="3"/>
       <c r="AI16" s="3"/>
       <c r="AJ16" s="4"/>
-      <c r="AK16" s="22" t="s">
-        <v>56</v>
+      <c r="AK16" s="20" t="s">
+        <v>54</v>
       </c>
       <c r="AL16" s="3"/>
       <c r="AM16" s="3"/>
@@ -3535,8 +3620,8 @@
       <c r="AQ16" s="3"/>
       <c r="AR16" s="4"/>
       <c r="AS16" s="3"/>
-      <c r="AT16" s="22" t="s">
-        <v>65</v>
+      <c r="AT16" s="20" t="s">
+        <v>62</v>
       </c>
       <c r="AU16" s="3"/>
       <c r="AV16" s="3"/>
@@ -3547,7 +3632,7 @@
       <c r="BA16" s="3"/>
       <c r="BB16" s="4"/>
       <c r="BC16" s="3" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="BD16" s="3"/>
       <c r="BE16" s="3"/>
@@ -3624,7 +3709,7 @@
     </row>
     <row r="18" spans="2:63" x14ac:dyDescent="0.15">
       <c r="B18" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -3633,39 +3718,39 @@
       <c r="G18" s="3"/>
       <c r="H18" s="4"/>
       <c r="I18" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
       <c r="N18" s="4"/>
-      <c r="O18" s="47" t="s">
-        <v>68</v>
-      </c>
-      <c r="P18" s="48"/>
-      <c r="Q18" s="48"/>
-      <c r="R18" s="48"/>
-      <c r="S18" s="48"/>
-      <c r="T18" s="48"/>
-      <c r="U18" s="48"/>
-      <c r="V18" s="48"/>
-      <c r="W18" s="48"/>
-      <c r="X18" s="48"/>
-      <c r="Y18" s="48"/>
-      <c r="Z18" s="48"/>
-      <c r="AA18" s="48"/>
-      <c r="AB18" s="48"/>
-      <c r="AC18" s="48"/>
-      <c r="AD18" s="48"/>
-      <c r="AE18" s="48"/>
-      <c r="AF18" s="48"/>
-      <c r="AG18" s="48"/>
-      <c r="AH18" s="48"/>
-      <c r="AI18" s="48"/>
-      <c r="AJ18" s="49"/>
+      <c r="O18" s="61" t="s">
+        <v>65</v>
+      </c>
+      <c r="P18" s="62"/>
+      <c r="Q18" s="62"/>
+      <c r="R18" s="62"/>
+      <c r="S18" s="62"/>
+      <c r="T18" s="62"/>
+      <c r="U18" s="62"/>
+      <c r="V18" s="62"/>
+      <c r="W18" s="62"/>
+      <c r="X18" s="62"/>
+      <c r="Y18" s="62"/>
+      <c r="Z18" s="62"/>
+      <c r="AA18" s="62"/>
+      <c r="AB18" s="62"/>
+      <c r="AC18" s="62"/>
+      <c r="AD18" s="62"/>
+      <c r="AE18" s="62"/>
+      <c r="AF18" s="62"/>
+      <c r="AG18" s="62"/>
+      <c r="AH18" s="62"/>
+      <c r="AI18" s="62"/>
+      <c r="AJ18" s="63"/>
       <c r="AK18" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="AL18" s="3"/>
       <c r="AM18" s="3"/>
@@ -3675,8 +3760,8 @@
       <c r="AQ18" s="3"/>
       <c r="AR18" s="4"/>
       <c r="AS18" s="3"/>
-      <c r="AT18" s="22" t="s">
-        <v>70</v>
+      <c r="AT18" s="20" t="s">
+        <v>67</v>
       </c>
       <c r="AU18" s="3"/>
       <c r="AV18" s="3"/>
@@ -3687,7 +3772,7 @@
       <c r="BA18" s="3"/>
       <c r="BB18" s="4"/>
       <c r="BC18" s="3" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="BD18" s="3"/>
       <c r="BE18" s="3"/>
@@ -3712,28 +3797,28 @@
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
       <c r="N19" s="9"/>
-      <c r="O19" s="50"/>
-      <c r="P19" s="51"/>
-      <c r="Q19" s="51"/>
-      <c r="R19" s="51"/>
-      <c r="S19" s="51"/>
-      <c r="T19" s="51"/>
-      <c r="U19" s="51"/>
-      <c r="V19" s="51"/>
-      <c r="W19" s="51"/>
-      <c r="X19" s="51"/>
-      <c r="Y19" s="51"/>
-      <c r="Z19" s="51"/>
-      <c r="AA19" s="51"/>
-      <c r="AB19" s="51"/>
-      <c r="AC19" s="51"/>
-      <c r="AD19" s="51"/>
-      <c r="AE19" s="51"/>
-      <c r="AF19" s="51"/>
-      <c r="AG19" s="51"/>
-      <c r="AH19" s="51"/>
-      <c r="AI19" s="51"/>
-      <c r="AJ19" s="52"/>
+      <c r="O19" s="64"/>
+      <c r="P19" s="65"/>
+      <c r="Q19" s="65"/>
+      <c r="R19" s="65"/>
+      <c r="S19" s="65"/>
+      <c r="T19" s="65"/>
+      <c r="U19" s="65"/>
+      <c r="V19" s="65"/>
+      <c r="W19" s="65"/>
+      <c r="X19" s="65"/>
+      <c r="Y19" s="65"/>
+      <c r="Z19" s="65"/>
+      <c r="AA19" s="65"/>
+      <c r="AB19" s="65"/>
+      <c r="AC19" s="65"/>
+      <c r="AD19" s="65"/>
+      <c r="AE19" s="65"/>
+      <c r="AF19" s="65"/>
+      <c r="AG19" s="65"/>
+      <c r="AH19" s="65"/>
+      <c r="AI19" s="65"/>
+      <c r="AJ19" s="66"/>
       <c r="AK19" s="8"/>
       <c r="AL19" s="8"/>
       <c r="AM19" s="8"/>
@@ -3743,8 +3828,8 @@
       <c r="AQ19" s="8"/>
       <c r="AR19" s="9"/>
       <c r="AS19" s="8"/>
-      <c r="AT19" s="23" t="s">
-        <v>71</v>
+      <c r="AT19" s="21" t="s">
+        <v>68</v>
       </c>
       <c r="AU19" s="8"/>
       <c r="AV19" s="8"/>
@@ -3766,7 +3851,7 @@
     </row>
     <row r="20" spans="2:63" x14ac:dyDescent="0.15">
       <c r="B20" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -3775,7 +3860,7 @@
       <c r="G20" s="3"/>
       <c r="H20" s="4"/>
       <c r="I20" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
@@ -3783,7 +3868,7 @@
       <c r="M20" s="3"/>
       <c r="N20" s="4"/>
       <c r="O20" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
@@ -3807,7 +3892,7 @@
       <c r="AI20" s="3"/>
       <c r="AJ20" s="4"/>
       <c r="AK20" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="AL20" s="3"/>
       <c r="AM20" s="3"/>
@@ -3817,8 +3902,8 @@
       <c r="AQ20" s="3"/>
       <c r="AR20" s="4"/>
       <c r="AS20" s="3"/>
-      <c r="AT20" s="22" t="s">
-        <v>76</v>
+      <c r="AT20" s="20" t="s">
+        <v>72</v>
       </c>
       <c r="AU20" s="3"/>
       <c r="AV20" s="3"/>
@@ -3829,7 +3914,7 @@
       <c r="BA20" s="3"/>
       <c r="BB20" s="4"/>
       <c r="BC20" s="3" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="BD20" s="3"/>
       <c r="BE20" s="3"/>
@@ -3855,7 +3940,7 @@
       <c r="M21" s="8"/>
       <c r="N21" s="9"/>
       <c r="O21" s="8" t="s">
-        <v>75</v>
+        <v>117</v>
       </c>
       <c r="P21" s="8"/>
       <c r="Q21" s="8"/>
@@ -3887,8 +3972,8 @@
       <c r="AQ21" s="8"/>
       <c r="AR21" s="9"/>
       <c r="AS21" s="8"/>
-      <c r="AT21" s="23" t="s">
-        <v>77</v>
+      <c r="AT21" s="21" t="s">
+        <v>73</v>
       </c>
       <c r="AU21" s="8"/>
       <c r="AV21" s="8"/>
@@ -3910,7 +3995,7 @@
     </row>
     <row r="22" spans="2:63" x14ac:dyDescent="0.15">
       <c r="B22" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -3919,15 +4004,15 @@
       <c r="G22" s="3"/>
       <c r="H22" s="4"/>
       <c r="I22" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
       <c r="N22" s="4"/>
-      <c r="O22" s="22" t="s">
-        <v>97</v>
+      <c r="O22" s="20" t="s">
+        <v>91</v>
       </c>
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
@@ -3951,7 +4036,7 @@
       <c r="AI22" s="3"/>
       <c r="AJ22" s="4"/>
       <c r="AK22" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="AL22" s="3"/>
       <c r="AM22" s="3"/>
@@ -3961,8 +4046,8 @@
       <c r="AQ22" s="3"/>
       <c r="AR22" s="4"/>
       <c r="AS22" s="3"/>
-      <c r="AT22" s="22" t="s">
-        <v>81</v>
+      <c r="AT22" s="20" t="s">
+        <v>76</v>
       </c>
       <c r="AU22" s="3"/>
       <c r="AV22" s="3"/>
@@ -3973,7 +4058,7 @@
       <c r="BA22" s="3"/>
       <c r="BB22" s="4"/>
       <c r="BC22" s="3" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="BD22" s="3"/>
       <c r="BE22" s="3"/>
@@ -3998,8 +4083,8 @@
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="6"/>
-      <c r="O23" s="21" t="s">
-        <v>80</v>
+      <c r="O23" s="19" t="s">
+        <v>118</v>
       </c>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
@@ -4031,8 +4116,8 @@
       <c r="AQ23" s="1"/>
       <c r="AR23" s="6"/>
       <c r="AS23" s="1"/>
-      <c r="AT23" s="21" t="s">
-        <v>82</v>
+      <c r="AT23" s="19" t="s">
+        <v>77</v>
       </c>
       <c r="AU23" s="1"/>
       <c r="AV23" s="1"/>
@@ -4118,7 +4203,7 @@
     </row>
     <row r="25" spans="2:63" x14ac:dyDescent="0.15">
       <c r="B25" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -4127,15 +4212,15 @@
       <c r="G25" s="3"/>
       <c r="H25" s="4"/>
       <c r="I25" s="3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="4"/>
-      <c r="O25" s="22" t="s">
-        <v>85</v>
+      <c r="O25" s="20" t="s">
+        <v>80</v>
       </c>
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
@@ -4159,7 +4244,7 @@
       <c r="AI25" s="3"/>
       <c r="AJ25" s="4"/>
       <c r="AK25" s="3" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="AL25" s="3"/>
       <c r="AM25" s="3"/>
@@ -4169,8 +4254,8 @@
       <c r="AQ25" s="3"/>
       <c r="AR25" s="4"/>
       <c r="AS25" s="3"/>
-      <c r="AT25" s="22" t="s">
-        <v>88</v>
+      <c r="AT25" s="20" t="s">
+        <v>82</v>
       </c>
       <c r="AU25" s="3"/>
       <c r="AV25" s="3"/>
@@ -4181,7 +4266,7 @@
       <c r="BA25" s="3"/>
       <c r="BB25" s="4"/>
       <c r="BC25" s="3" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="BD25" s="3"/>
       <c r="BE25" s="3"/>
@@ -4206,8 +4291,8 @@
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="6"/>
-      <c r="O26" s="21" t="s">
-        <v>86</v>
+      <c r="O26" s="19" t="s">
+        <v>119</v>
       </c>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
@@ -4239,8 +4324,8 @@
       <c r="AQ26" s="1"/>
       <c r="AR26" s="6"/>
       <c r="AS26" s="1"/>
-      <c r="AT26" s="21" t="s">
-        <v>89</v>
+      <c r="AT26" s="19" t="s">
+        <v>83</v>
       </c>
       <c r="AU26" s="1"/>
       <c r="AV26" s="1"/>
@@ -4326,7 +4411,7 @@
     </row>
     <row r="28" spans="2:63" x14ac:dyDescent="0.15">
       <c r="B28" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -4335,15 +4420,15 @@
       <c r="G28" s="3"/>
       <c r="H28" s="4"/>
       <c r="I28" s="3" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
       <c r="N28" s="4"/>
-      <c r="O28" s="22" t="s">
-        <v>102</v>
+      <c r="O28" s="20" t="s">
+        <v>95</v>
       </c>
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
@@ -4367,7 +4452,7 @@
       <c r="AI28" s="3"/>
       <c r="AJ28" s="4"/>
       <c r="AK28" s="3" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="AL28" s="3"/>
       <c r="AM28" s="3"/>
@@ -4386,7 +4471,9 @@
       <c r="AZ28" s="3"/>
       <c r="BA28" s="3"/>
       <c r="BB28" s="4"/>
-      <c r="BC28" s="3"/>
+      <c r="BC28" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="BD28" s="3"/>
       <c r="BE28" s="3"/>
       <c r="BF28" s="3"/>
@@ -4462,7 +4549,7 @@
     </row>
     <row r="30" spans="2:63" x14ac:dyDescent="0.15">
       <c r="B30" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -4470,14 +4557,16 @@
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="4"/>
-      <c r="I30" s="3"/>
+      <c r="I30" s="3" t="s">
+        <v>108</v>
+      </c>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
       <c r="N30" s="4"/>
-      <c r="O30" s="22" t="s">
-        <v>108</v>
+      <c r="O30" s="20" t="s">
+        <v>101</v>
       </c>
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
@@ -4501,7 +4590,7 @@
       <c r="AI30" s="3"/>
       <c r="AJ30" s="4"/>
       <c r="AK30" s="3" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="AL30" s="3"/>
       <c r="AM30" s="3"/>
@@ -4512,7 +4601,7 @@
       <c r="AR30" s="4"/>
       <c r="AS30" s="3"/>
       <c r="AT30" s="3" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="AU30" s="3"/>
       <c r="AV30" s="3"/>
@@ -4522,7 +4611,9 @@
       <c r="AZ30" s="3"/>
       <c r="BA30" s="3"/>
       <c r="BB30" s="4"/>
-      <c r="BC30" s="3"/>
+      <c r="BC30" s="3" t="s">
+        <v>110</v>
+      </c>
       <c r="BD30" s="3"/>
       <c r="BE30" s="3"/>
       <c r="BF30" s="3"/>
@@ -4578,7 +4669,7 @@
       <c r="AR31" s="6"/>
       <c r="AS31" s="1"/>
       <c r="AT31" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="AU31" s="1"/>
       <c r="AV31" s="1"/>
@@ -4662,119 +4753,732 @@
       <c r="BJ32" s="8"/>
       <c r="BK32" s="9"/>
     </row>
-    <row r="33" spans="2:61" x14ac:dyDescent="0.15">
-      <c r="B33" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="H33" s="4"/>
-      <c r="N33" s="6"/>
-      <c r="O33" t="s">
-        <v>107</v>
-      </c>
-      <c r="AJ33" s="6"/>
-      <c r="AP33" s="1"/>
-      <c r="AR33" s="4"/>
-      <c r="AT33" t="s">
+    <row r="33" spans="1:64" x14ac:dyDescent="0.15">
+      <c r="B33" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="J33" s="28"/>
+      <c r="K33" s="28"/>
+      <c r="L33" s="28"/>
+      <c r="M33" s="28"/>
+      <c r="N33" s="29"/>
+      <c r="O33" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="P33" s="28"/>
+      <c r="Q33" s="28"/>
+      <c r="R33" s="28"/>
+      <c r="S33" s="28"/>
+      <c r="T33" s="28"/>
+      <c r="U33" s="28"/>
+      <c r="V33" s="28"/>
+      <c r="W33" s="28"/>
+      <c r="X33" s="28"/>
+      <c r="Y33" s="28"/>
+      <c r="Z33" s="28"/>
+      <c r="AA33" s="28"/>
+      <c r="AB33" s="28"/>
+      <c r="AC33" s="28"/>
+      <c r="AD33" s="28"/>
+      <c r="AE33" s="28"/>
+      <c r="AF33" s="28"/>
+      <c r="AG33" s="28"/>
+      <c r="AH33" s="28"/>
+      <c r="AI33" s="28"/>
+      <c r="AJ33" s="29"/>
+      <c r="AK33" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="AL33" s="28"/>
+      <c r="AM33" s="28"/>
+      <c r="AN33" s="28"/>
+      <c r="AO33" s="28"/>
+      <c r="AP33" s="28"/>
+      <c r="AQ33" s="28"/>
+      <c r="AR33" s="29"/>
+      <c r="AS33" s="28"/>
+      <c r="AT33" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="AU33" s="28"/>
+      <c r="AV33" s="28"/>
+      <c r="AW33" s="28"/>
+      <c r="AX33" s="28"/>
+      <c r="AY33" s="28"/>
+      <c r="AZ33" s="28"/>
+      <c r="BA33" s="28"/>
+      <c r="BB33" s="29"/>
+      <c r="BC33" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="BD33" s="28"/>
+      <c r="BE33" s="28"/>
+      <c r="BF33" s="28"/>
+      <c r="BG33" s="28"/>
+      <c r="BH33" s="28"/>
+      <c r="BI33" s="29"/>
+      <c r="BJ33" s="28"/>
+      <c r="BK33" s="29"/>
+    </row>
+    <row r="34" spans="1:64" x14ac:dyDescent="0.15">
+      <c r="B34" s="30"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="31"/>
+      <c r="L34" s="31"/>
+      <c r="M34" s="31"/>
+      <c r="N34" s="32"/>
+      <c r="O34" s="31"/>
+      <c r="P34" s="31"/>
+      <c r="Q34" s="31"/>
+      <c r="R34" s="31"/>
+      <c r="S34" s="31"/>
+      <c r="T34" s="31"/>
+      <c r="U34" s="31"/>
+      <c r="V34" s="31"/>
+      <c r="W34" s="31"/>
+      <c r="X34" s="31"/>
+      <c r="Y34" s="31"/>
+      <c r="Z34" s="31"/>
+      <c r="AA34" s="31"/>
+      <c r="AB34" s="31"/>
+      <c r="AC34" s="31"/>
+      <c r="AD34" s="31"/>
+      <c r="AE34" s="31"/>
+      <c r="AF34" s="31"/>
+      <c r="AG34" s="31"/>
+      <c r="AH34" s="31"/>
+      <c r="AI34" s="31"/>
+      <c r="AJ34" s="32"/>
+      <c r="AK34" s="31"/>
+      <c r="AL34" s="31"/>
+      <c r="AM34" s="31"/>
+      <c r="AN34" s="31"/>
+      <c r="AO34" s="31"/>
+      <c r="AP34" s="31"/>
+      <c r="AQ34" s="31"/>
+      <c r="AR34" s="32"/>
+      <c r="AS34" s="31"/>
+      <c r="AT34" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="AU34" s="31"/>
+      <c r="AV34" s="31"/>
+      <c r="AW34" s="31"/>
+      <c r="AX34" s="31"/>
+      <c r="AY34" s="31"/>
+      <c r="AZ34" s="31"/>
+      <c r="BA34" s="31"/>
+      <c r="BB34" s="32"/>
+      <c r="BC34" s="31"/>
+      <c r="BD34" s="31"/>
+      <c r="BE34" s="31"/>
+      <c r="BF34" s="31"/>
+      <c r="BG34" s="31"/>
+      <c r="BH34" s="31"/>
+      <c r="BI34" s="32"/>
+      <c r="BJ34" s="31"/>
+      <c r="BK34" s="32"/>
+    </row>
+    <row r="35" spans="1:64" x14ac:dyDescent="0.15">
+      <c r="B35" s="30"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="32"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="31"/>
+      <c r="L35" s="31"/>
+      <c r="M35" s="31"/>
+      <c r="N35" s="32"/>
+      <c r="O35" s="31"/>
+      <c r="P35" s="31"/>
+      <c r="Q35" s="31"/>
+      <c r="R35" s="31"/>
+      <c r="S35" s="31"/>
+      <c r="T35" s="31"/>
+      <c r="U35" s="31"/>
+      <c r="V35" s="31"/>
+      <c r="W35" s="31"/>
+      <c r="X35" s="31"/>
+      <c r="Y35" s="31"/>
+      <c r="Z35" s="31"/>
+      <c r="AA35" s="31"/>
+      <c r="AB35" s="31"/>
+      <c r="AC35" s="31"/>
+      <c r="AD35" s="31"/>
+      <c r="AE35" s="31"/>
+      <c r="AF35" s="31"/>
+      <c r="AG35" s="31"/>
+      <c r="AH35" s="31"/>
+      <c r="AI35" s="31"/>
+      <c r="AJ35" s="32"/>
+      <c r="AK35" s="31"/>
+      <c r="AL35" s="31"/>
+      <c r="AM35" s="31"/>
+      <c r="AN35" s="31"/>
+      <c r="AO35" s="31"/>
+      <c r="AP35" s="31"/>
+      <c r="AQ35" s="31"/>
+      <c r="AR35" s="32"/>
+      <c r="AS35" s="31"/>
+      <c r="AT35" s="31"/>
+      <c r="AU35" s="31"/>
+      <c r="AV35" s="31"/>
+      <c r="AW35" s="31"/>
+      <c r="AX35" s="31"/>
+      <c r="AY35" s="31"/>
+      <c r="AZ35" s="31"/>
+      <c r="BA35" s="31"/>
+      <c r="BB35" s="32"/>
+      <c r="BC35" s="31"/>
+      <c r="BD35" s="31"/>
+      <c r="BE35" s="31"/>
+      <c r="BF35" s="31"/>
+      <c r="BG35" s="31"/>
+      <c r="BH35" s="31"/>
+      <c r="BI35" s="32"/>
+      <c r="BJ35" s="31"/>
+      <c r="BK35" s="32"/>
+    </row>
+    <row r="36" spans="1:64" x14ac:dyDescent="0.15">
+      <c r="B36" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="3"/>
+      <c r="U36" s="3"/>
+      <c r="V36" s="3"/>
+      <c r="W36" s="3"/>
+      <c r="X36" s="3"/>
+      <c r="Y36" s="3"/>
+      <c r="Z36" s="3"/>
+      <c r="AA36" s="3"/>
+      <c r="AB36" s="3"/>
+      <c r="AC36" s="3"/>
+      <c r="AD36" s="3"/>
+      <c r="AE36" s="3"/>
+      <c r="AF36" s="3"/>
+      <c r="AG36" s="3"/>
+      <c r="AH36" s="3"/>
+      <c r="AI36" s="3"/>
+      <c r="AJ36" s="4"/>
+      <c r="AK36" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="BB33" s="4"/>
-      <c r="BI33" s="4"/>
-    </row>
-    <row r="34" spans="2:61" x14ac:dyDescent="0.15">
-      <c r="H34" s="6"/>
-      <c r="N34" s="6"/>
-      <c r="AJ34" s="6"/>
-      <c r="AP34" s="1"/>
-      <c r="AQ34" s="1"/>
-      <c r="AR34" s="6"/>
-      <c r="AT34" t="s">
-        <v>110</v>
-      </c>
-      <c r="BB34" s="6"/>
-      <c r="BI34" s="6"/>
-    </row>
-    <row r="35" spans="2:61" x14ac:dyDescent="0.15">
-      <c r="H35" s="6"/>
-      <c r="N35" s="6"/>
-      <c r="AJ35" s="6"/>
-      <c r="AR35" s="6"/>
-      <c r="BB35" s="6"/>
-      <c r="BI35" s="6"/>
-    </row>
-    <row r="36" spans="2:61" x14ac:dyDescent="0.15">
-      <c r="H36" s="6"/>
-      <c r="N36" s="6"/>
-      <c r="AJ36" s="6"/>
-      <c r="AR36" s="6"/>
-      <c r="BB36" s="6"/>
-      <c r="BI36" s="6"/>
-    </row>
-    <row r="37" spans="2:61" x14ac:dyDescent="0.15">
+      <c r="AL36" s="3"/>
+      <c r="AM36" s="3"/>
+      <c r="AN36" s="3"/>
+      <c r="AO36" s="3"/>
+      <c r="AP36" s="3"/>
+      <c r="AQ36" s="3"/>
+      <c r="AR36" s="4"/>
+      <c r="AS36" s="3"/>
+      <c r="AT36" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="AU36" s="3"/>
+      <c r="AV36" s="3"/>
+      <c r="AW36" s="3"/>
+      <c r="AX36" s="3"/>
+      <c r="AY36" s="3"/>
+      <c r="AZ36" s="3"/>
+      <c r="BA36" s="3"/>
+      <c r="BB36" s="4"/>
+      <c r="BC36" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="BD36" s="3"/>
+      <c r="BE36" s="3"/>
+      <c r="BF36" s="3"/>
+      <c r="BG36" s="3"/>
+      <c r="BH36" s="3"/>
+      <c r="BI36" s="4"/>
+      <c r="BJ36" s="3"/>
+      <c r="BK36" s="4"/>
+    </row>
+    <row r="37" spans="1:64" x14ac:dyDescent="0.15">
+      <c r="B37" s="5"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
       <c r="H37" s="6"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
       <c r="N37" s="6"/>
+      <c r="O37" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
+      <c r="W37" s="1"/>
+      <c r="X37" s="1"/>
+      <c r="Y37" s="1"/>
+      <c r="Z37" s="1"/>
+      <c r="AA37" s="1"/>
+      <c r="AB37" s="1"/>
+      <c r="AC37" s="1"/>
+      <c r="AD37" s="1"/>
+      <c r="AE37" s="1"/>
+      <c r="AF37" s="1"/>
+      <c r="AG37" s="1"/>
+      <c r="AH37" s="1"/>
+      <c r="AI37" s="1"/>
       <c r="AJ37" s="6"/>
+      <c r="AK37" s="1"/>
+      <c r="AL37" s="1"/>
+      <c r="AM37" s="1"/>
+      <c r="AN37" s="1"/>
+      <c r="AO37" s="1"/>
+      <c r="AP37" s="1"/>
+      <c r="AQ37" s="1"/>
       <c r="AR37" s="6"/>
+      <c r="AS37" s="1"/>
+      <c r="AT37" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AU37" s="1"/>
+      <c r="AV37" s="1"/>
+      <c r="AW37" s="1"/>
+      <c r="AX37" s="1"/>
+      <c r="AY37" s="1"/>
+      <c r="AZ37" s="1"/>
+      <c r="BA37" s="1"/>
       <c r="BB37" s="6"/>
+      <c r="BC37" s="5"/>
+      <c r="BD37" s="1"/>
+      <c r="BE37" s="1"/>
+      <c r="BF37" s="1"/>
+      <c r="BG37" s="1"/>
+      <c r="BH37" s="1"/>
       <c r="BI37" s="6"/>
-    </row>
-    <row r="38" spans="2:61" x14ac:dyDescent="0.15">
-      <c r="H38" s="6"/>
-      <c r="N38" s="6"/>
-      <c r="AJ38" s="6"/>
-      <c r="AR38" s="6"/>
-      <c r="BB38" s="6"/>
-      <c r="BI38" s="6"/>
-    </row>
-    <row r="39" spans="2:61" x14ac:dyDescent="0.15">
-      <c r="H39" s="6"/>
-      <c r="N39" s="6"/>
-      <c r="AJ39" s="6"/>
-      <c r="AR39" s="6"/>
-      <c r="BB39" s="6"/>
-      <c r="BI39" s="6"/>
-    </row>
-    <row r="40" spans="2:61" x14ac:dyDescent="0.15">
-      <c r="H40" s="6"/>
-      <c r="N40" s="6"/>
-      <c r="AJ40" s="6"/>
-      <c r="AR40" s="6"/>
-      <c r="BB40" s="6"/>
-      <c r="BI40" s="6"/>
-    </row>
-    <row r="41" spans="2:61" x14ac:dyDescent="0.15">
-      <c r="H41" s="6"/>
-      <c r="N41" s="6"/>
-      <c r="AJ41" s="6"/>
-      <c r="AR41" s="6"/>
-      <c r="BB41" s="6"/>
-      <c r="BI41" s="6"/>
-    </row>
-    <row r="42" spans="2:61" x14ac:dyDescent="0.15">
-      <c r="H42" s="6"/>
-      <c r="N42" s="6"/>
-      <c r="AJ42" s="6"/>
-      <c r="AR42" s="6"/>
-      <c r="BB42" s="6"/>
-      <c r="BI42" s="6"/>
+      <c r="BJ37" s="1"/>
+      <c r="BK37" s="6"/>
+    </row>
+    <row r="38" spans="1:64" x14ac:dyDescent="0.15">
+      <c r="B38" s="7"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="8"/>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="8"/>
+      <c r="R38" s="8"/>
+      <c r="S38" s="8"/>
+      <c r="T38" s="8"/>
+      <c r="U38" s="8"/>
+      <c r="V38" s="8"/>
+      <c r="W38" s="8"/>
+      <c r="X38" s="8"/>
+      <c r="Y38" s="8"/>
+      <c r="Z38" s="8"/>
+      <c r="AA38" s="8"/>
+      <c r="AB38" s="8"/>
+      <c r="AC38" s="8"/>
+      <c r="AD38" s="8"/>
+      <c r="AE38" s="8"/>
+      <c r="AF38" s="8"/>
+      <c r="AG38" s="8"/>
+      <c r="AH38" s="8"/>
+      <c r="AI38" s="8"/>
+      <c r="AJ38" s="9"/>
+      <c r="AK38" s="8"/>
+      <c r="AL38" s="8"/>
+      <c r="AM38" s="8"/>
+      <c r="AN38" s="8"/>
+      <c r="AO38" s="8"/>
+      <c r="AP38" s="8"/>
+      <c r="AQ38" s="8"/>
+      <c r="AR38" s="9"/>
+      <c r="AS38" s="8"/>
+      <c r="AT38" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="AU38" s="8"/>
+      <c r="AV38" s="8"/>
+      <c r="AW38" s="8"/>
+      <c r="AX38" s="8"/>
+      <c r="AY38" s="8"/>
+      <c r="AZ38" s="8"/>
+      <c r="BA38" s="8"/>
+      <c r="BB38" s="9"/>
+      <c r="BC38" s="7"/>
+      <c r="BD38" s="8"/>
+      <c r="BE38" s="8"/>
+      <c r="BF38" s="8"/>
+      <c r="BG38" s="8"/>
+      <c r="BH38" s="8"/>
+      <c r="BI38" s="9"/>
+      <c r="BJ38" s="8"/>
+      <c r="BK38" s="9"/>
+    </row>
+    <row r="39" spans="1:64" x14ac:dyDescent="0.15">
+      <c r="A39" s="1"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="20"/>
+      <c r="L39" s="20"/>
+      <c r="M39" s="20"/>
+      <c r="N39" s="20"/>
+      <c r="O39" s="20"/>
+      <c r="P39" s="20"/>
+      <c r="Q39" s="20"/>
+      <c r="R39" s="20"/>
+      <c r="S39" s="20"/>
+      <c r="T39" s="20"/>
+      <c r="U39" s="20"/>
+      <c r="V39" s="20"/>
+      <c r="W39" s="20"/>
+      <c r="X39" s="20"/>
+      <c r="Y39" s="20"/>
+      <c r="Z39" s="20"/>
+      <c r="AA39" s="20"/>
+      <c r="AB39" s="20"/>
+      <c r="AC39" s="20"/>
+      <c r="AD39" s="20"/>
+      <c r="AE39" s="20"/>
+      <c r="AF39" s="20"/>
+      <c r="AG39" s="20"/>
+      <c r="AH39" s="20"/>
+      <c r="AI39" s="20"/>
+      <c r="AJ39" s="20"/>
+      <c r="AK39" s="20"/>
+      <c r="AL39" s="20"/>
+      <c r="AM39" s="20"/>
+      <c r="AN39" s="20"/>
+      <c r="AO39" s="20"/>
+      <c r="AP39" s="20"/>
+      <c r="AQ39" s="20"/>
+      <c r="AR39" s="20"/>
+      <c r="AS39" s="20"/>
+      <c r="AT39" s="20"/>
+      <c r="AU39" s="20"/>
+      <c r="AV39" s="20"/>
+      <c r="AW39" s="20"/>
+      <c r="AX39" s="20"/>
+      <c r="AY39" s="20"/>
+      <c r="AZ39" s="20"/>
+      <c r="BA39" s="20"/>
+      <c r="BB39" s="20"/>
+      <c r="BC39" s="19"/>
+      <c r="BD39" s="19"/>
+      <c r="BE39" s="19"/>
+      <c r="BF39" s="19"/>
+      <c r="BG39" s="19"/>
+      <c r="BH39" s="19"/>
+      <c r="BI39" s="19"/>
+      <c r="BJ39" s="20"/>
+      <c r="BK39" s="20"/>
+    </row>
+    <row r="40" spans="1:64" x14ac:dyDescent="0.15">
+      <c r="A40" s="1"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="19"/>
+      <c r="K40" s="19"/>
+      <c r="L40" s="19"/>
+      <c r="M40" s="19"/>
+      <c r="N40" s="19"/>
+      <c r="O40" s="19"/>
+      <c r="P40" s="19"/>
+      <c r="Q40" s="19"/>
+      <c r="R40" s="19"/>
+      <c r="S40" s="19"/>
+      <c r="T40" s="19"/>
+      <c r="U40" s="19"/>
+      <c r="V40" s="19"/>
+      <c r="W40" s="19"/>
+      <c r="X40" s="19"/>
+      <c r="Y40" s="19"/>
+      <c r="Z40" s="19"/>
+      <c r="AA40" s="19"/>
+      <c r="AB40" s="19"/>
+      <c r="AC40" s="19"/>
+      <c r="AD40" s="19"/>
+      <c r="AE40" s="19"/>
+      <c r="AF40" s="19"/>
+      <c r="AG40" s="19"/>
+      <c r="AH40" s="19"/>
+      <c r="AI40" s="19"/>
+      <c r="AJ40" s="19"/>
+      <c r="AK40" s="19"/>
+      <c r="AL40" s="19"/>
+      <c r="AM40" s="19"/>
+      <c r="AN40" s="19"/>
+      <c r="AO40" s="19"/>
+      <c r="AP40" s="19"/>
+      <c r="AQ40" s="19"/>
+      <c r="AR40" s="19"/>
+      <c r="AS40" s="19"/>
+      <c r="AT40" s="19"/>
+      <c r="AU40" s="19"/>
+      <c r="AV40" s="19"/>
+      <c r="AW40" s="19"/>
+      <c r="AX40" s="19"/>
+      <c r="AY40" s="19"/>
+      <c r="AZ40" s="19"/>
+      <c r="BA40" s="19"/>
+      <c r="BB40" s="19"/>
+      <c r="BC40" s="19"/>
+      <c r="BD40" s="19"/>
+      <c r="BE40" s="19"/>
+      <c r="BF40" s="19"/>
+      <c r="BG40" s="19"/>
+      <c r="BH40" s="19"/>
+      <c r="BI40" s="19"/>
+      <c r="BJ40" s="19"/>
+      <c r="BK40" s="19"/>
+    </row>
+    <row r="41" spans="1:64" x14ac:dyDescent="0.15">
+      <c r="A41" s="1"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="19"/>
+      <c r="K41" s="19"/>
+      <c r="L41" s="19"/>
+      <c r="M41" s="19"/>
+      <c r="N41" s="19"/>
+      <c r="O41" s="19"/>
+      <c r="P41" s="19"/>
+      <c r="Q41" s="19"/>
+      <c r="R41" s="19"/>
+      <c r="S41" s="19"/>
+      <c r="T41" s="19"/>
+      <c r="U41" s="19"/>
+      <c r="V41" s="19"/>
+      <c r="W41" s="19"/>
+      <c r="X41" s="19"/>
+      <c r="Y41" s="19"/>
+      <c r="Z41" s="19"/>
+      <c r="AA41" s="19"/>
+      <c r="AB41" s="19"/>
+      <c r="AC41" s="19"/>
+      <c r="AD41" s="19"/>
+      <c r="AE41" s="19"/>
+      <c r="AF41" s="19"/>
+      <c r="AG41" s="19"/>
+      <c r="AH41" s="19"/>
+      <c r="AI41" s="19"/>
+      <c r="AJ41" s="19"/>
+      <c r="AK41" s="19"/>
+      <c r="AL41" s="19"/>
+      <c r="AM41" s="19"/>
+      <c r="AN41" s="19"/>
+      <c r="AO41" s="19"/>
+      <c r="AP41" s="19"/>
+      <c r="AQ41" s="19"/>
+      <c r="AR41" s="19"/>
+      <c r="AS41" s="19"/>
+      <c r="AT41" s="19"/>
+      <c r="AU41" s="19"/>
+      <c r="AV41" s="19"/>
+      <c r="AW41" s="19"/>
+      <c r="AX41" s="19"/>
+      <c r="AY41" s="19"/>
+      <c r="AZ41" s="19"/>
+      <c r="BA41" s="19"/>
+      <c r="BB41" s="19"/>
+      <c r="BC41" s="19"/>
+      <c r="BD41" s="19"/>
+      <c r="BE41" s="19"/>
+      <c r="BF41" s="19"/>
+      <c r="BG41" s="19"/>
+      <c r="BH41" s="19"/>
+      <c r="BI41" s="19"/>
+      <c r="BJ41" s="19"/>
+      <c r="BK41" s="19"/>
+      <c r="BL41" s="1"/>
+    </row>
+    <row r="42" spans="1:64" x14ac:dyDescent="0.15">
+      <c r="A42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="AJ42" s="1"/>
+      <c r="AR42" s="1"/>
+      <c r="BC42" s="1"/>
+      <c r="BI42" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B2:F3"/>
+    <mergeCell ref="G2:M3"/>
+    <mergeCell ref="B4:F5"/>
+    <mergeCell ref="G4:M5"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="I6:N6"/>
     <mergeCell ref="AK6:AR6"/>
     <mergeCell ref="AS6:BB6"/>
     <mergeCell ref="BC6:BI6"/>
     <mergeCell ref="BJ6:BK6"/>
     <mergeCell ref="O18:AJ19"/>
     <mergeCell ref="O13:AJ15"/>
-    <mergeCell ref="B2:F3"/>
-    <mergeCell ref="G2:M3"/>
-    <mergeCell ref="B4:F5"/>
-    <mergeCell ref="G4:M5"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="I6:N6"/>
     <mergeCell ref="O6:AJ6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="84" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:M5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S29" sqref="S29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B2" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="49"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B3" s="57"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="51"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B4" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="54"/>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B5" s="36"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B2:F3"/>
+    <mergeCell ref="G2:M3"/>
+    <mergeCell ref="B4:F5"/>
+    <mergeCell ref="G4:M5"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>